--- a/JupyterNotebooks/AvgHW/Alpha1F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,25 +82,25 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,31 +626,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9963280161114462</v>
+        <v>0.9942219704489831</v>
       </c>
       <c r="D3">
+        <v>0.9963280161114461</v>
+      </c>
+      <c r="E3">
+        <v>1.012956979901712</v>
+      </c>
+      <c r="F3">
+        <v>0.9817744544596916</v>
+      </c>
+      <c r="G3">
         <v>1.022199602654179</v>
       </c>
-      <c r="E3">
+      <c r="H3">
+        <v>0.9963280161114461</v>
+      </c>
+      <c r="I3">
         <v>0.9933732124275004</v>
-      </c>
-      <c r="F3">
-        <v>0.9963280161114462</v>
-      </c>
-      <c r="G3">
-        <v>0.9817744544596916</v>
-      </c>
-      <c r="H3">
-        <v>1.012956979901712</v>
-      </c>
-      <c r="I3">
-        <v>0.9942219704489831</v>
       </c>
       <c r="J3">
         <v>1.022199602654179</v>
       </c>
       <c r="K3">
-        <v>0.9963280161114462</v>
+        <v>0.9963280161114461</v>
       </c>
       <c r="L3">
         <v>0.9933732124275004</v>
@@ -728,7 +680,7 @@
         <v>1.000142372667252</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9888494306708471</v>
+      </c>
+      <c r="D4">
         <v>0.9929702518072635</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1.025010645769137</v>
+      </c>
+      <c r="F4">
+        <v>0.9647526604373322</v>
+      </c>
+      <c r="G4">
         <v>1.042822578952436</v>
       </c>
-      <c r="E4">
+      <c r="H4">
+        <v>0.9929702518072635</v>
+      </c>
+      <c r="I4">
         <v>0.9871891958171737</v>
-      </c>
-      <c r="F4">
-        <v>0.9929702518072635</v>
-      </c>
-      <c r="G4">
-        <v>0.9647526604373322</v>
-      </c>
-      <c r="H4">
-        <v>1.025010645769137</v>
-      </c>
-      <c r="I4">
-        <v>0.9888494306708471</v>
       </c>
       <c r="J4">
         <v>1.042822578952436</v>
@@ -790,7 +742,7 @@
         <v>1.000265793909032</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9785929422579478</v>
+      </c>
+      <c r="D5">
         <v>0.9859990871812285</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>1.047952041834111</v>
+      </c>
+      <c r="F5">
+        <v>0.9330363296757133</v>
+      </c>
+      <c r="G5">
         <v>1.08236872095078</v>
       </c>
-      <c r="E5">
+      <c r="H5">
+        <v>0.9859990871812285</v>
+      </c>
+      <c r="I5">
         <v>0.975612972919068</v>
-      </c>
-      <c r="F5">
-        <v>0.9859990871812285</v>
-      </c>
-      <c r="G5">
-        <v>0.9330363296757133</v>
-      </c>
-      <c r="H5">
-        <v>1.047952041834111</v>
-      </c>
-      <c r="I5">
-        <v>0.9785929422579478</v>
       </c>
       <c r="J5">
         <v>1.08236872095078</v>
@@ -852,7 +804,7 @@
         <v>1.000593682469808</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.968565131740464</v>
+      </c>
+      <c r="D6">
         <v>0.9792548225384606</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>1.07038530783582</v>
+      </c>
+      <c r="F6">
+        <v>0.9020503649698403</v>
+      </c>
+      <c r="G6">
         <v>1.120752594527541</v>
       </c>
-      <c r="E6">
+      <c r="H6">
+        <v>0.9792548225384606</v>
+      </c>
+      <c r="I6">
         <v>0.9642387126278048</v>
-      </c>
-      <c r="F6">
-        <v>0.9792548225384606</v>
-      </c>
-      <c r="G6">
-        <v>0.9020503649698403</v>
-      </c>
-      <c r="H6">
-        <v>1.07038530783582</v>
-      </c>
-      <c r="I6">
-        <v>0.968565131740464</v>
       </c>
       <c r="J6">
         <v>1.120752594527541</v>
@@ -914,7 +866,7 @@
         <v>1.000874489039988</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,34 +874,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9995549299149149</v>
+        <v>0.999608198636483</v>
       </c>
       <c r="D7">
+        <v>0.9995549299149148</v>
+      </c>
+      <c r="E7">
+        <v>1.000838095087441</v>
+      </c>
+      <c r="F7">
+        <v>0.9990878394695414</v>
+      </c>
+      <c r="G7">
         <v>1.001600643192188</v>
       </c>
-      <c r="E7">
-        <v>0.9996334692160128</v>
-      </c>
-      <c r="F7">
-        <v>0.9995549299149149</v>
-      </c>
-      <c r="G7">
-        <v>0.9990878394695408</v>
-      </c>
       <c r="H7">
-        <v>1.000838095087441</v>
+        <v>0.9995549299149148</v>
       </c>
       <c r="I7">
-        <v>0.999608198636483</v>
+        <v>0.9996334692160127</v>
       </c>
       <c r="J7">
         <v>1.001600643192188</v>
       </c>
       <c r="K7">
-        <v>0.9995549299149149</v>
+        <v>0.9995549299149148</v>
       </c>
       <c r="L7">
-        <v>0.9996334692160128</v>
+        <v>0.9996334692160127</v>
       </c>
       <c r="M7">
         <v>1.0006170562041</v>
@@ -958,7 +910,7 @@
         <v>1.0006170562041</v>
       </c>
       <c r="O7">
-        <v>1.000690735831881</v>
+        <v>1.00069073583188</v>
       </c>
       <c r="P7">
         <v>1.000263014107705</v>
@@ -967,16 +919,16 @@
         <v>1.000263014107705</v>
       </c>
       <c r="R7">
-        <v>1.000085993059508</v>
+        <v>1.000085993059507</v>
       </c>
       <c r="S7">
-        <v>1.000085993059508</v>
+        <v>1.000085993059507</v>
       </c>
       <c r="T7">
         <v>1.000053862586097</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,31 +936,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9992232173454887</v>
+        <v>0.9991165812461251</v>
       </c>
       <c r="D8">
+        <v>0.9992232173454886</v>
+      </c>
+      <c r="E8">
+        <v>1.001873208570357</v>
+      </c>
+      <c r="F8">
+        <v>0.9977986656535278</v>
+      </c>
+      <c r="G8">
         <v>1.003562403928244</v>
       </c>
-      <c r="E8">
+      <c r="H8">
+        <v>0.9992232173454886</v>
+      </c>
+      <c r="I8">
         <v>0.9990848072332763</v>
-      </c>
-      <c r="F8">
-        <v>0.9992232173454887</v>
-      </c>
-      <c r="G8">
-        <v>0.9977986656535278</v>
-      </c>
-      <c r="H8">
-        <v>1.001873208570357</v>
-      </c>
-      <c r="I8">
-        <v>0.9991165812461255</v>
       </c>
       <c r="J8">
         <v>1.003562403928244</v>
       </c>
       <c r="K8">
-        <v>0.9992232173454887</v>
+        <v>0.9992232173454886</v>
       </c>
       <c r="L8">
         <v>0.9990848072332763</v>
@@ -1029,16 +981,16 @@
         <v>1.000623476169003</v>
       </c>
       <c r="R8">
-        <v>1.000273411463124</v>
+        <v>1.000273411463125</v>
       </c>
       <c r="S8">
-        <v>1.000273411463124</v>
+        <v>1.000273411463125</v>
       </c>
       <c r="T8">
         <v>1.00010981399617</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,31 +998,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9994254548513407</v>
+        <v>0.9988533252008215</v>
       </c>
       <c r="D9">
+        <v>0.9994254548513405</v>
+      </c>
+      <c r="E9">
+        <v>1.002459345931466</v>
+      </c>
+      <c r="F9">
+        <v>0.9966193262673354</v>
+      </c>
+      <c r="G9">
         <v>1.004560951366333</v>
       </c>
-      <c r="E9">
+      <c r="H9">
+        <v>0.9994254548513405</v>
+      </c>
+      <c r="I9">
         <v>0.9986320050152714</v>
-      </c>
-      <c r="F9">
-        <v>0.9994254548513407</v>
-      </c>
-      <c r="G9">
-        <v>0.9966193262673354</v>
-      </c>
-      <c r="H9">
-        <v>1.002459345931466</v>
-      </c>
-      <c r="I9">
-        <v>0.9988533252008215</v>
       </c>
       <c r="J9">
         <v>1.004560951366333</v>
       </c>
       <c r="K9">
-        <v>0.9994254548513407</v>
+        <v>0.9994254548513405</v>
       </c>
       <c r="L9">
         <v>0.9986320050152714</v>
@@ -1100,7 +1052,7 @@
         <v>1.000091734772095</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9974427761215319</v>
+      </c>
+      <c r="D10">
         <v>0.9981066016226974</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>1.005474656809969</v>
+      </c>
+      <c r="F10">
+        <v>0.9930775382501944</v>
+      </c>
+      <c r="G10">
         <v>1.010258792304054</v>
       </c>
-      <c r="E10">
+      <c r="H10">
+        <v>0.9981066016226974</v>
+      </c>
+      <c r="I10">
         <v>0.997200733652159</v>
-      </c>
-      <c r="F10">
-        <v>0.9981066016226974</v>
-      </c>
-      <c r="G10">
-        <v>0.9930775382501944</v>
-      </c>
-      <c r="H10">
-        <v>1.005474656809969</v>
-      </c>
-      <c r="I10">
-        <v>0.9974427761215315</v>
       </c>
       <c r="J10">
         <v>1.010258792304054</v>
@@ -1162,7 +1114,7 @@
         <v>1.000260183126768</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,25 +1122,25 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.995984625253471</v>
+      </c>
+      <c r="D11">
         <v>0.9986290799255361</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>1.008590008576468</v>
+      </c>
+      <c r="F11">
+        <v>0.9877147197296462</v>
+      </c>
+      <c r="G11">
         <v>1.015713615238844</v>
       </c>
-      <c r="E11">
+      <c r="H11">
+        <v>0.9986290799255361</v>
+      </c>
+      <c r="I11">
         <v>0.9949503053527794</v>
-      </c>
-      <c r="F11">
-        <v>0.9986290799255361</v>
-      </c>
-      <c r="G11">
-        <v>0.9877147197296462</v>
-      </c>
-      <c r="H11">
-        <v>1.008590008576468</v>
-      </c>
-      <c r="I11">
-        <v>0.995984625253471</v>
       </c>
       <c r="J11">
         <v>1.015713615238844</v>
@@ -1224,7 +1176,7 @@
         <v>1.000263725679458</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.031765287095218</v>
+      </c>
+      <c r="D12">
         <v>1.191763859511074</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>0.9491394175470963</v>
+      </c>
+      <c r="F12">
+        <v>0.8681313135159158</v>
+      </c>
+      <c r="G12">
         <v>0.8157107643532153</v>
       </c>
-      <c r="E12">
-        <v>0.965889100680987</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.191763859511074</v>
       </c>
-      <c r="G12">
-        <v>0.8681313135159158</v>
-      </c>
-      <c r="H12">
-        <v>0.9491394175470963</v>
-      </c>
       <c r="I12">
-        <v>1.031765287095218</v>
+        <v>0.9658891006809871</v>
       </c>
       <c r="J12">
         <v>0.8157107643532153</v>
@@ -1259,7 +1211,7 @@
         <v>1.191763859511074</v>
       </c>
       <c r="L12">
-        <v>0.965889100680987</v>
+        <v>0.9658891006809871</v>
       </c>
       <c r="M12">
         <v>0.8907999325171012</v>
@@ -1286,7 +1238,7 @@
         <v>0.9703999571172509</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,25 +1246,25 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.00044227108493</v>
+      </c>
+      <c r="D13">
         <v>0.9323921068624815</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>0.9914124375423538</v>
+      </c>
+      <c r="F13">
+        <v>1.092053969813212</v>
+      </c>
+      <c r="G13">
         <v>1.020774004069899</v>
       </c>
-      <c r="E13">
+      <c r="H13">
+        <v>0.9323921068624815</v>
+      </c>
+      <c r="I13">
         <v>1.028459455958266</v>
-      </c>
-      <c r="F13">
-        <v>0.9323921068624815</v>
-      </c>
-      <c r="G13">
-        <v>1.092053969813211</v>
-      </c>
-      <c r="H13">
-        <v>0.991412437542354</v>
-      </c>
-      <c r="I13">
-        <v>1.00044227108493</v>
       </c>
       <c r="J13">
         <v>1.020774004069899</v>
@@ -1348,7 +1300,7 @@
         <v>1.010922374221857</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,25 +1308,25 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.014347206604026</v>
+      </c>
+      <c r="D14">
         <v>0.787771418577992</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>0.9404216355940348</v>
+      </c>
+      <c r="F14">
+        <v>1.35162782427869</v>
+      </c>
+      <c r="G14">
         <v>1.021884075968069</v>
       </c>
-      <c r="E14">
+      <c r="H14">
+        <v>0.787771418577992</v>
+      </c>
+      <c r="I14">
         <v>1.107077319400852</v>
-      </c>
-      <c r="F14">
-        <v>0.787771418577992</v>
-      </c>
-      <c r="G14">
-        <v>1.35162782427869</v>
-      </c>
-      <c r="H14">
-        <v>0.9404216355940348</v>
-      </c>
-      <c r="I14">
-        <v>1.014347206604026</v>
       </c>
       <c r="J14">
         <v>1.021884075968069</v>
@@ -1395,22 +1347,22 @@
         <v>1.023127676987652</v>
       </c>
       <c r="P14">
-        <v>0.9722442713156378</v>
+        <v>0.9722442713156377</v>
       </c>
       <c r="Q14">
-        <v>0.9722442713156378</v>
+        <v>0.9722442713156377</v>
       </c>
       <c r="R14">
-        <v>0.9261260581312264</v>
+        <v>0.9261260581312263</v>
       </c>
       <c r="S14">
-        <v>0.9261260581312264</v>
+        <v>0.9261260581312263</v>
       </c>
       <c r="T14">
         <v>1.037188246737277</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.01709717973906</v>
+      </c>
+      <c r="D15">
         <v>1.108546735160906</v>
       </c>
-      <c r="D15">
-        <v>0.9136383475102809</v>
-      </c>
       <c r="E15">
+        <v>0.9757852064686257</v>
+      </c>
+      <c r="F15">
+        <v>0.9040444492177049</v>
+      </c>
+      <c r="G15">
+        <v>0.9136383475102811</v>
+      </c>
+      <c r="H15">
+        <v>1.108546735160906</v>
+      </c>
+      <c r="I15">
         <v>0.9796214158284349</v>
       </c>
-      <c r="F15">
-        <v>1.108546735160906</v>
-      </c>
-      <c r="G15">
-        <v>0.9040444492177051</v>
-      </c>
-      <c r="H15">
-        <v>0.9757852064686257</v>
-      </c>
-      <c r="I15">
-        <v>1.01709717973906</v>
-      </c>
       <c r="J15">
-        <v>0.9136383475102809</v>
+        <v>0.9136383475102811</v>
       </c>
       <c r="K15">
         <v>1.108546735160906</v>
@@ -1472,7 +1424,7 @@
         <v>0.9831222223208352</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9993594012252653</v>
+        <v>0.8869904586695853</v>
       </c>
       <c r="D16">
-        <v>1.000486892787028</v>
+        <v>0.9226809475833672</v>
       </c>
       <c r="E16">
-        <v>1.000158694792475</v>
+        <v>1.252812006893091</v>
       </c>
       <c r="F16">
-        <v>0.9993594012252653</v>
+        <v>0.6507258467276812</v>
       </c>
       <c r="G16">
-        <v>1.000612944952434</v>
+        <v>1.43678572056773</v>
       </c>
       <c r="H16">
-        <v>1.000078334018128</v>
+        <v>0.9226809475833672</v>
       </c>
       <c r="I16">
-        <v>0.9999328821295179</v>
+        <v>0.8725961041978043</v>
       </c>
       <c r="J16">
-        <v>1.000486892787028</v>
+        <v>1.43678572056773</v>
       </c>
       <c r="K16">
-        <v>0.9993594012252653</v>
+        <v>0.9226809475833672</v>
       </c>
       <c r="L16">
-        <v>1.000158694792475</v>
+        <v>0.8725961041978043</v>
       </c>
       <c r="M16">
-        <v>1.000322793789751</v>
+        <v>1.154690912382767</v>
       </c>
       <c r="N16">
-        <v>1.000322793789751</v>
+        <v>1.154690912382767</v>
       </c>
       <c r="O16">
-        <v>1.00024130719921</v>
+        <v>1.187397943886208</v>
       </c>
       <c r="P16">
-        <v>1.000001662934923</v>
+        <v>1.077354257449634</v>
       </c>
       <c r="Q16">
-        <v>1.000001662934923</v>
+        <v>1.077354257449634</v>
       </c>
       <c r="R16">
-        <v>0.9998410975075085</v>
+        <v>1.038685929983067</v>
       </c>
       <c r="S16">
-        <v>0.9998410975075085</v>
+        <v>1.038685929983067</v>
       </c>
       <c r="T16">
-        <v>1.000104858317475</v>
+        <v>1.00376518077321</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000085323919915</v>
+        <v>0.9068339440567657</v>
       </c>
       <c r="D17">
-        <v>1.001686963109937</v>
+        <v>0.925393848019452</v>
       </c>
       <c r="E17">
-        <v>0.9993156653731124</v>
+        <v>1.20706660929785</v>
       </c>
       <c r="F17">
-        <v>1.000085323919915</v>
+        <v>0.7269551160422527</v>
       </c>
       <c r="G17">
-        <v>0.9979813208750302</v>
+        <v>1.364265217868423</v>
       </c>
       <c r="H17">
-        <v>1.001109901054921</v>
+        <v>0.925393848019452</v>
       </c>
       <c r="I17">
-        <v>0.9995183111830962</v>
+        <v>0.8994233402635016</v>
       </c>
       <c r="J17">
-        <v>1.001686963109937</v>
+        <v>1.364265217868423</v>
       </c>
       <c r="K17">
-        <v>1.000085323919915</v>
+        <v>0.925393848019452</v>
       </c>
       <c r="L17">
-        <v>0.9993156653731124</v>
+        <v>0.8994233402635016</v>
       </c>
       <c r="M17">
-        <v>1.000501314241524</v>
+        <v>1.131844279065962</v>
       </c>
       <c r="N17">
-        <v>1.000501314241524</v>
+        <v>1.131844279065962</v>
       </c>
       <c r="O17">
-        <v>1.000704176512657</v>
+        <v>1.156918389143258</v>
       </c>
       <c r="P17">
-        <v>1.000362650800988</v>
+        <v>1.063027468717126</v>
       </c>
       <c r="Q17">
-        <v>1.000362650800988</v>
+        <v>1.063027468717126</v>
       </c>
       <c r="R17">
-        <v>1.00029331908072</v>
+        <v>1.028619063542707</v>
       </c>
       <c r="S17">
-        <v>1.00029331908072</v>
+        <v>1.028619063542707</v>
       </c>
       <c r="T17">
-        <v>0.9999495809193352</v>
+        <v>1.004989679258041</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9974094571655546</v>
+        <v>0.9469416337932559</v>
       </c>
       <c r="D18">
-        <v>1.007713556484617</v>
+        <v>0.9320388006543443</v>
       </c>
       <c r="E18">
-        <v>0.9983730905559248</v>
+        <v>1.114687700841913</v>
       </c>
       <c r="F18">
-        <v>0.9974094571655546</v>
+        <v>0.8796540376658024</v>
       </c>
       <c r="G18">
-        <v>0.9960149329193757</v>
+        <v>1.217348317023612</v>
       </c>
       <c r="H18">
-        <v>1.004061505602579</v>
+        <v>0.9320388006543443</v>
       </c>
       <c r="I18">
-        <v>0.9981111612459772</v>
+        <v>0.9531735784882219</v>
       </c>
       <c r="J18">
-        <v>1.007713556484617</v>
+        <v>1.217348317023612</v>
       </c>
       <c r="K18">
-        <v>0.9974094571655546</v>
+        <v>0.9320388006543443</v>
       </c>
       <c r="L18">
-        <v>0.9983730905559248</v>
+        <v>0.9531735784882219</v>
       </c>
       <c r="M18">
-        <v>1.003043323520271</v>
+        <v>1.085260947755917</v>
       </c>
       <c r="N18">
-        <v>1.003043323520271</v>
+        <v>1.085260947755917</v>
       </c>
       <c r="O18">
-        <v>1.003382717547707</v>
+        <v>1.095069865451249</v>
       </c>
       <c r="P18">
-        <v>1.001165368068699</v>
+        <v>1.034186898722059</v>
       </c>
       <c r="Q18">
-        <v>1.001165368068699</v>
+        <v>1.034186898722059</v>
       </c>
       <c r="R18">
-        <v>1.000226390342913</v>
+        <v>1.008649874205131</v>
       </c>
       <c r="S18">
-        <v>1.000226390342913</v>
+        <v>1.008649874205131</v>
       </c>
       <c r="T18">
-        <v>1.000280617329005</v>
+        <v>1.007307344744525</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.941780968271689</v>
+      </c>
+      <c r="D19">
+        <v>0.9174627412799627</v>
+      </c>
+      <c r="E19">
+        <v>1.124986461438669</v>
+      </c>
+      <c r="F19">
+        <v>0.8784918754760873</v>
+      </c>
+      <c r="G19">
+        <v>1.240866405412204</v>
+      </c>
+      <c r="H19">
+        <v>0.9174627412799627</v>
+      </c>
+      <c r="I19">
+        <v>0.9519160591615916</v>
+      </c>
+      <c r="J19">
+        <v>1.240866405412204</v>
+      </c>
+      <c r="K19">
+        <v>0.9174627412799627</v>
+      </c>
+      <c r="L19">
+        <v>0.9519160591615916</v>
+      </c>
+      <c r="M19">
+        <v>1.096391232286898</v>
+      </c>
+      <c r="N19">
+        <v>1.096391232286898</v>
+      </c>
+      <c r="O19">
+        <v>1.105922975337488</v>
+      </c>
+      <c r="P19">
+        <v>1.036748401951253</v>
+      </c>
+      <c r="Q19">
+        <v>1.036748401951253</v>
+      </c>
+      <c r="R19">
+        <v>1.006926986783431</v>
+      </c>
+      <c r="S19">
+        <v>1.006926986783431</v>
+      </c>
+      <c r="T19">
+        <v>1.009250751840034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999328821295177</v>
+      </c>
+      <c r="D20">
+        <v>0.9993594012252653</v>
+      </c>
+      <c r="E20">
+        <v>1.000078334018128</v>
+      </c>
+      <c r="F20">
+        <v>1.000612944952434</v>
+      </c>
+      <c r="G20">
+        <v>1.000486892787028</v>
+      </c>
+      <c r="H20">
+        <v>0.9993594012252653</v>
+      </c>
+      <c r="I20">
+        <v>1.000158694792475</v>
+      </c>
+      <c r="J20">
+        <v>1.000486892787028</v>
+      </c>
+      <c r="K20">
+        <v>0.9993594012252653</v>
+      </c>
+      <c r="L20">
+        <v>1.000158694792475</v>
+      </c>
+      <c r="M20">
+        <v>1.000322793789751</v>
+      </c>
+      <c r="N20">
+        <v>1.000322793789751</v>
+      </c>
+      <c r="O20">
+        <v>1.00024130719921</v>
+      </c>
+      <c r="P20">
+        <v>1.000001662934923</v>
+      </c>
+      <c r="Q20">
+        <v>1.000001662934923</v>
+      </c>
+      <c r="R20">
+        <v>0.9998410975075085</v>
+      </c>
+      <c r="S20">
+        <v>0.9998410975075085</v>
+      </c>
+      <c r="T20">
+        <v>1.000104858317475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9995183111830962</v>
+      </c>
+      <c r="D21">
+        <v>1.000085323919915</v>
+      </c>
+      <c r="E21">
+        <v>1.001109901054921</v>
+      </c>
+      <c r="F21">
+        <v>0.9979813208750302</v>
+      </c>
+      <c r="G21">
+        <v>1.001686963109937</v>
+      </c>
+      <c r="H21">
+        <v>1.000085323919915</v>
+      </c>
+      <c r="I21">
+        <v>0.9993156653731124</v>
+      </c>
+      <c r="J21">
+        <v>1.001686963109937</v>
+      </c>
+      <c r="K21">
+        <v>1.000085323919915</v>
+      </c>
+      <c r="L21">
+        <v>0.9993156653731124</v>
+      </c>
+      <c r="M21">
+        <v>1.000501314241524</v>
+      </c>
+      <c r="N21">
+        <v>1.000501314241524</v>
+      </c>
+      <c r="O21">
+        <v>1.000704176512657</v>
+      </c>
+      <c r="P21">
+        <v>1.000362650800988</v>
+      </c>
+      <c r="Q21">
+        <v>1.000362650800988</v>
+      </c>
+      <c r="R21">
+        <v>1.00029331908072</v>
+      </c>
+      <c r="S21">
+        <v>1.00029331908072</v>
+      </c>
+      <c r="T21">
+        <v>0.9999495809193352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9981111612459772</v>
+      </c>
+      <c r="D22">
+        <v>0.9974094571655546</v>
+      </c>
+      <c r="E22">
+        <v>1.00406150560258</v>
+      </c>
+      <c r="F22">
+        <v>0.9960149329193756</v>
+      </c>
+      <c r="G22">
+        <v>1.007713556484617</v>
+      </c>
+      <c r="H22">
+        <v>0.9974094571655546</v>
+      </c>
+      <c r="I22">
+        <v>0.9983730905559248</v>
+      </c>
+      <c r="J22">
+        <v>1.007713556484617</v>
+      </c>
+      <c r="K22">
+        <v>0.9974094571655546</v>
+      </c>
+      <c r="L22">
+        <v>0.9983730905559248</v>
+      </c>
+      <c r="M22">
+        <v>1.003043323520271</v>
+      </c>
+      <c r="N22">
+        <v>1.003043323520271</v>
+      </c>
+      <c r="O22">
+        <v>1.003382717547707</v>
+      </c>
+      <c r="P22">
+        <v>1.001165368068699</v>
+      </c>
+      <c r="Q22">
+        <v>1.001165368068699</v>
+      </c>
+      <c r="R22">
+        <v>1.000226390342913</v>
+      </c>
+      <c r="S22">
+        <v>1.000226390342913</v>
+      </c>
+      <c r="T22">
+        <v>1.000280617329005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9955192131159265</v>
+      </c>
+      <c r="D23">
         <v>0.9923761996644128</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>1.009568357521425</v>
+      </c>
+      <c r="F23">
+        <v>0.992201766724177</v>
+      </c>
+      <c r="G23">
         <v>1.019222555319453</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>0.9923761996644128</v>
+      </c>
+      <c r="I23">
         <v>0.9966216042395454</v>
       </c>
-      <c r="F19">
+      <c r="J23">
+        <v>1.019222555319453</v>
+      </c>
+      <c r="K23">
         <v>0.9923761996644128</v>
       </c>
-      <c r="G19">
-        <v>0.992201766724177</v>
-      </c>
-      <c r="H19">
-        <v>1.009568357521425</v>
-      </c>
-      <c r="I19">
-        <v>0.9955192131159265</v>
-      </c>
-      <c r="J19">
-        <v>1.019222555319453</v>
-      </c>
-      <c r="K19">
-        <v>0.9923761996644128</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9966216042395454</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.007922079779499</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.007922079779499</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.008470839026808</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.002740119741137</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.002740119741137</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000149139721956</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000149139721956</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000918282764157</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9942219704489831</v>
+        <v>0.9384793596109493</v>
       </c>
       <c r="D3">
-        <v>0.9963280161114461</v>
+        <v>0.9205077580547525</v>
       </c>
       <c r="E3">
-        <v>1.012956979901712</v>
+        <v>1.132832909221904</v>
       </c>
       <c r="F3">
-        <v>0.9817744544596916</v>
+        <v>0.861751239092218</v>
       </c>
       <c r="G3">
-        <v>1.022199602654179</v>
+        <v>1.252006129869594</v>
       </c>
       <c r="H3">
-        <v>0.9963280161114461</v>
+        <v>0.9205077580547525</v>
       </c>
       <c r="I3">
-        <v>0.9933732124275004</v>
+        <v>0.9459870119668574</v>
       </c>
       <c r="J3">
-        <v>1.022199602654179</v>
+        <v>1.252006129869594</v>
       </c>
       <c r="K3">
-        <v>0.9963280161114461</v>
+        <v>0.9205077580547525</v>
       </c>
       <c r="L3">
-        <v>0.9933732124275004</v>
+        <v>0.9459870119668574</v>
       </c>
       <c r="M3">
-        <v>1.00778640754084</v>
+        <v>1.098996570918226</v>
       </c>
       <c r="N3">
-        <v>1.00778640754084</v>
+        <v>1.098996570918226</v>
       </c>
       <c r="O3">
-        <v>1.009509931661131</v>
+        <v>1.110275350352785</v>
       </c>
       <c r="P3">
-        <v>1.003966943731042</v>
+        <v>1.039500299963735</v>
       </c>
       <c r="Q3">
-        <v>1.003966943731042</v>
+        <v>1.039500299963735</v>
       </c>
       <c r="R3">
-        <v>1.002057211826143</v>
+        <v>1.009752164486489</v>
       </c>
       <c r="S3">
-        <v>1.002057211826143</v>
+        <v>1.009752164486489</v>
       </c>
       <c r="T3">
-        <v>1.000142372667252</v>
+        <v>1.008594067969379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9888494306708471</v>
+        <v>0.9429261604770824</v>
       </c>
       <c r="D4">
-        <v>0.9929702518072635</v>
+        <v>0.9257216010790135</v>
       </c>
       <c r="E4">
-        <v>1.025010645769137</v>
+        <v>1.123280525618713</v>
       </c>
       <c r="F4">
-        <v>0.9647526604373322</v>
+        <v>0.8720186379230335</v>
       </c>
       <c r="G4">
-        <v>1.042822578952436</v>
+        <v>1.233977189909623</v>
       </c>
       <c r="H4">
-        <v>0.9929702518072635</v>
+        <v>0.9257216010790135</v>
       </c>
       <c r="I4">
-        <v>0.9871891958171737</v>
+        <v>0.9501022340244113</v>
       </c>
       <c r="J4">
-        <v>1.042822578952436</v>
+        <v>1.233977189909623</v>
       </c>
       <c r="K4">
-        <v>0.9929702518072635</v>
+        <v>0.9257216010790135</v>
       </c>
       <c r="L4">
-        <v>0.9871891958171737</v>
+        <v>0.9501022340244113</v>
       </c>
       <c r="M4">
-        <v>1.015005887384805</v>
+        <v>1.092039711967017</v>
       </c>
       <c r="N4">
-        <v>1.015005887384805</v>
+        <v>1.092039711967017</v>
       </c>
       <c r="O4">
-        <v>1.018340806846249</v>
+        <v>1.102453316517582</v>
       </c>
       <c r="P4">
-        <v>1.007660675525624</v>
+        <v>1.036600341671016</v>
       </c>
       <c r="Q4">
-        <v>1.007660675525624</v>
+        <v>1.036600341671016</v>
       </c>
       <c r="R4">
-        <v>1.003988069596034</v>
+        <v>1.008880656523015</v>
       </c>
       <c r="S4">
-        <v>1.003988069596034</v>
+        <v>1.008880656523015</v>
       </c>
       <c r="T4">
-        <v>1.000265793909032</v>
+        <v>1.008004391505313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9785929422579478</v>
+        <v>0.9300721596495938</v>
       </c>
       <c r="D5">
-        <v>0.9859990871812285</v>
+        <v>0.9109152872776284</v>
       </c>
       <c r="E5">
-        <v>1.047952041834111</v>
+        <v>1.150881100188677</v>
       </c>
       <c r="F5">
-        <v>0.9330363296757133</v>
+        <v>0.8421265367115897</v>
       </c>
       <c r="G5">
-        <v>1.08236872095078</v>
+        <v>1.286061692477092</v>
       </c>
       <c r="H5">
-        <v>0.9859990871812285</v>
+        <v>0.9109152872776284</v>
       </c>
       <c r="I5">
-        <v>0.975612972919068</v>
+        <v>0.9381031437196763</v>
       </c>
       <c r="J5">
-        <v>1.08236872095078</v>
+        <v>1.286061692477092</v>
       </c>
       <c r="K5">
-        <v>0.9859990871812285</v>
+        <v>0.9109152872776284</v>
       </c>
       <c r="L5">
-        <v>0.975612972919068</v>
+        <v>0.9381031437196763</v>
       </c>
       <c r="M5">
-        <v>1.028990846934924</v>
+        <v>1.112082418098384</v>
       </c>
       <c r="N5">
-        <v>1.028990846934924</v>
+        <v>1.112082418098384</v>
       </c>
       <c r="O5">
-        <v>1.035311245234653</v>
+        <v>1.125015312128482</v>
       </c>
       <c r="P5">
-        <v>1.014660260350359</v>
+        <v>1.045026707824799</v>
       </c>
       <c r="Q5">
-        <v>1.014660260350359</v>
+        <v>1.045026707824799</v>
       </c>
       <c r="R5">
-        <v>1.007494967058076</v>
+        <v>1.011498852688006</v>
       </c>
       <c r="S5">
-        <v>1.007494967058076</v>
+        <v>1.011498852688006</v>
       </c>
       <c r="T5">
-        <v>1.000593682469808</v>
+        <v>1.009693320004043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.968565131740464</v>
+        <v>0.9222672868181822</v>
       </c>
       <c r="D6">
-        <v>0.9792548225384606</v>
+        <v>0.9023265158522722</v>
       </c>
       <c r="E6">
-        <v>1.07038530783582</v>
+        <v>1.167622258295455</v>
       </c>
       <c r="F6">
-        <v>0.9020503649698403</v>
+        <v>0.8236534076136365</v>
       </c>
       <c r="G6">
-        <v>1.120752594527541</v>
+        <v>1.317641223295454</v>
       </c>
       <c r="H6">
-        <v>0.9792548225384606</v>
+        <v>0.9023265158522722</v>
       </c>
       <c r="I6">
-        <v>0.9642387126278048</v>
+        <v>0.930660409829546</v>
       </c>
       <c r="J6">
-        <v>1.120752594527541</v>
+        <v>1.317641223295454</v>
       </c>
       <c r="K6">
-        <v>0.9792548225384606</v>
+        <v>0.9023265158522722</v>
       </c>
       <c r="L6">
-        <v>0.9642387126278048</v>
+        <v>0.930660409829546</v>
       </c>
       <c r="M6">
-        <v>1.042495653577673</v>
+        <v>1.1241508165625</v>
       </c>
       <c r="N6">
-        <v>1.042495653577673</v>
+        <v>1.1241508165625</v>
       </c>
       <c r="O6">
-        <v>1.051792204997055</v>
+        <v>1.138641297140151</v>
       </c>
       <c r="P6">
-        <v>1.021415376564602</v>
+        <v>1.050209382992424</v>
       </c>
       <c r="Q6">
-        <v>1.021415376564602</v>
+        <v>1.050209382992424</v>
       </c>
       <c r="R6">
-        <v>1.010875238058067</v>
+        <v>1.013238666207386</v>
       </c>
       <c r="S6">
-        <v>1.010875238058067</v>
+        <v>1.013238666207386</v>
       </c>
       <c r="T6">
-        <v>1.000874489039988</v>
+        <v>1.010695183617424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999608198636483</v>
+        <v>1.105672746290637</v>
       </c>
       <c r="D7">
-        <v>0.9995549299149148</v>
+        <v>1.120318346865945</v>
       </c>
       <c r="E7">
-        <v>1.000838095087441</v>
+        <v>0.7542488082848638</v>
       </c>
       <c r="F7">
-        <v>0.9990878394695414</v>
+        <v>1.32284400700582</v>
       </c>
       <c r="G7">
-        <v>1.001600643192188</v>
+        <v>0.5863544195586203</v>
       </c>
       <c r="H7">
-        <v>0.9995549299149148</v>
+        <v>1.120318346865945</v>
       </c>
       <c r="I7">
-        <v>0.9996334692160127</v>
+        <v>1.097986451595045</v>
       </c>
       <c r="J7">
-        <v>1.001600643192188</v>
+        <v>0.5863544195586203</v>
       </c>
       <c r="K7">
-        <v>0.9995549299149148</v>
+        <v>1.120318346865945</v>
       </c>
       <c r="L7">
-        <v>0.9996334692160127</v>
+        <v>1.097986451595045</v>
       </c>
       <c r="M7">
-        <v>1.0006170562041</v>
+        <v>0.8421704355768325</v>
       </c>
       <c r="N7">
-        <v>1.0006170562041</v>
+        <v>0.8421704355768325</v>
       </c>
       <c r="O7">
-        <v>1.00069073583188</v>
+        <v>0.8128632264795096</v>
       </c>
       <c r="P7">
-        <v>1.000263014107705</v>
+        <v>0.9348864060065366</v>
       </c>
       <c r="Q7">
-        <v>1.000263014107705</v>
+        <v>0.9348864060065366</v>
       </c>
       <c r="R7">
-        <v>1.000085993059507</v>
+        <v>0.9812443912213887</v>
       </c>
       <c r="S7">
-        <v>1.000085993059507</v>
+        <v>0.9812443912213887</v>
       </c>
       <c r="T7">
-        <v>1.000053862586097</v>
+        <v>0.9979041299334885</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9991165812461251</v>
+        <v>1.104084103176118</v>
       </c>
       <c r="D8">
-        <v>0.9992232173454886</v>
+        <v>1.119535777142581</v>
       </c>
       <c r="E8">
-        <v>1.001873208570357</v>
+        <v>0.7577003905768592</v>
       </c>
       <c r="F8">
-        <v>0.9977986656535278</v>
+        <v>1.317950710269136</v>
       </c>
       <c r="G8">
-        <v>1.003562403928244</v>
+        <v>0.5926340241291361</v>
       </c>
       <c r="H8">
-        <v>0.9992232173454886</v>
+        <v>1.119535777142581</v>
       </c>
       <c r="I8">
-        <v>0.9990848072332763</v>
+        <v>1.096097942123474</v>
       </c>
       <c r="J8">
-        <v>1.003562403928244</v>
+        <v>0.5926340241291361</v>
       </c>
       <c r="K8">
-        <v>0.9992232173454886</v>
+        <v>1.119535777142581</v>
       </c>
       <c r="L8">
-        <v>0.9990848072332763</v>
+        <v>1.096097942123474</v>
       </c>
       <c r="M8">
-        <v>1.00132360558076</v>
+        <v>0.844365983126305</v>
       </c>
       <c r="N8">
-        <v>1.00132360558076</v>
+        <v>0.844365983126305</v>
       </c>
       <c r="O8">
-        <v>1.001506806577293</v>
+        <v>0.8154774522764897</v>
       </c>
       <c r="P8">
-        <v>1.000623476169003</v>
+        <v>0.9360892477983969</v>
       </c>
       <c r="Q8">
-        <v>1.000623476169003</v>
+        <v>0.9360892477983969</v>
       </c>
       <c r="R8">
-        <v>1.000273411463125</v>
+        <v>0.9819508801344429</v>
       </c>
       <c r="S8">
-        <v>1.000273411463125</v>
+        <v>0.9819508801344429</v>
       </c>
       <c r="T8">
-        <v>1.00010981399617</v>
+        <v>0.9980004912362174</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9988533252008215</v>
+        <v>1.102517806993852</v>
       </c>
       <c r="D9">
-        <v>0.9994254548513405</v>
+        <v>1.117365330493202</v>
       </c>
       <c r="E9">
-        <v>1.002459345931466</v>
+        <v>0.76103125499722</v>
       </c>
       <c r="F9">
-        <v>0.9966193262673354</v>
+        <v>1.314661290181452</v>
       </c>
       <c r="G9">
-        <v>1.004560951366333</v>
+        <v>0.5992761114434795</v>
       </c>
       <c r="H9">
-        <v>0.9994254548513405</v>
+        <v>1.117365330493202</v>
       </c>
       <c r="I9">
-        <v>0.9986320050152714</v>
+        <v>1.094799819701399</v>
       </c>
       <c r="J9">
-        <v>1.004560951366333</v>
+        <v>0.5992761114434795</v>
       </c>
       <c r="K9">
-        <v>0.9994254548513405</v>
+        <v>1.117365330493202</v>
       </c>
       <c r="L9">
-        <v>0.9986320050152714</v>
+        <v>1.094799819701399</v>
       </c>
       <c r="M9">
-        <v>1.001596478190802</v>
+        <v>0.847037965572439</v>
       </c>
       <c r="N9">
-        <v>1.001596478190802</v>
+        <v>0.847037965572439</v>
       </c>
       <c r="O9">
-        <v>1.001884100771023</v>
+        <v>0.818369062047366</v>
       </c>
       <c r="P9">
-        <v>1.000872803744315</v>
+        <v>0.9371470872126931</v>
       </c>
       <c r="Q9">
-        <v>1.000872803744315</v>
+        <v>0.9371470872126931</v>
       </c>
       <c r="R9">
-        <v>1.000510966521071</v>
+        <v>0.9822016480328203</v>
       </c>
       <c r="S9">
-        <v>1.000510966521071</v>
+        <v>0.9822016480328203</v>
       </c>
       <c r="T9">
-        <v>1.000091734772095</v>
+        <v>0.9982752689684338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9974427761215319</v>
+        <v>1.100477123883421</v>
       </c>
       <c r="D10">
-        <v>0.9981066016226974</v>
+        <v>1.121217052198201</v>
       </c>
       <c r="E10">
-        <v>1.005474656809969</v>
+        <v>0.7653501460461358</v>
       </c>
       <c r="F10">
-        <v>0.9930775382501944</v>
+        <v>1.304010915564402</v>
       </c>
       <c r="G10">
-        <v>1.010258792304054</v>
+        <v>0.6069071897797</v>
       </c>
       <c r="H10">
-        <v>0.9981066016226974</v>
+        <v>1.121217052198201</v>
       </c>
       <c r="I10">
-        <v>0.997200733652159</v>
+        <v>1.090464196956389</v>
       </c>
       <c r="J10">
-        <v>1.010258792304054</v>
+        <v>0.6069071897797</v>
       </c>
       <c r="K10">
-        <v>0.9981066016226974</v>
+        <v>1.121217052198201</v>
       </c>
       <c r="L10">
-        <v>0.997200733652159</v>
+        <v>1.090464196956389</v>
       </c>
       <c r="M10">
-        <v>1.003729762978107</v>
+        <v>0.8486856933680447</v>
       </c>
       <c r="N10">
-        <v>1.003729762978107</v>
+        <v>0.8486856933680447</v>
       </c>
       <c r="O10">
-        <v>1.004311394255394</v>
+        <v>0.8209071775940751</v>
       </c>
       <c r="P10">
-        <v>1.001855375859637</v>
+        <v>0.9395294796447634</v>
       </c>
       <c r="Q10">
-        <v>1.001855375859637</v>
+        <v>0.9395294796447634</v>
       </c>
       <c r="R10">
-        <v>1.000918182300402</v>
+        <v>0.9849513727831228</v>
       </c>
       <c r="S10">
-        <v>1.000918182300402</v>
+        <v>0.9849513727831228</v>
       </c>
       <c r="T10">
-        <v>1.000260183126768</v>
+        <v>0.9980711040713749</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.995984625253471</v>
+        <v>0.9943103246909638</v>
       </c>
       <c r="D11">
-        <v>0.9986290799255361</v>
+        <v>0.9974123504742233</v>
       </c>
       <c r="E11">
-        <v>1.008590008576468</v>
+        <v>1.012893544370036</v>
       </c>
       <c r="F11">
-        <v>0.9877147197296462</v>
+        <v>0.9806877329680092</v>
       </c>
       <c r="G11">
-        <v>1.015713615238844</v>
+        <v>1.021425508539001</v>
       </c>
       <c r="H11">
-        <v>0.9986290799255361</v>
+        <v>0.9974123504742233</v>
       </c>
       <c r="I11">
-        <v>0.9949503053527794</v>
+        <v>0.9930272858584688</v>
       </c>
       <c r="J11">
-        <v>1.015713615238844</v>
+        <v>1.021425508539001</v>
       </c>
       <c r="K11">
-        <v>0.9986290799255361</v>
+        <v>0.9974123504742233</v>
       </c>
       <c r="L11">
-        <v>0.9949503053527794</v>
+        <v>0.9930272858584688</v>
       </c>
       <c r="M11">
-        <v>1.005331960295812</v>
+        <v>1.007226397198735</v>
       </c>
       <c r="N11">
-        <v>1.005331960295812</v>
+        <v>1.007226397198735</v>
       </c>
       <c r="O11">
-        <v>1.006417976389364</v>
+        <v>1.009115446255835</v>
       </c>
       <c r="P11">
-        <v>1.003097666839053</v>
+        <v>1.003955048290564</v>
       </c>
       <c r="Q11">
-        <v>1.003097666839053</v>
+        <v>1.003955048290565</v>
       </c>
       <c r="R11">
-        <v>1.001980520110674</v>
+        <v>1.002319373836479</v>
       </c>
       <c r="S11">
-        <v>1.001980520110674</v>
+        <v>1.002319373836479</v>
       </c>
       <c r="T11">
-        <v>1.000263725679458</v>
+        <v>0.9999594578167837</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.031765287095218</v>
+        <v>0.9977236521386731</v>
       </c>
       <c r="D12">
-        <v>1.191763859511074</v>
+        <v>0.9987258323418192</v>
       </c>
       <c r="E12">
-        <v>0.9491394175470963</v>
+        <v>1.00500845961993</v>
       </c>
       <c r="F12">
-        <v>0.8681313135159158</v>
+        <v>0.9930246842444567</v>
       </c>
       <c r="G12">
-        <v>0.8157107643532153</v>
+        <v>1.008840299800216</v>
       </c>
       <c r="H12">
-        <v>1.191763859511074</v>
+        <v>0.9987258323418192</v>
       </c>
       <c r="I12">
-        <v>0.9658891006809871</v>
+        <v>0.9973125257505165</v>
       </c>
       <c r="J12">
-        <v>0.8157107643532153</v>
+        <v>1.008840299800216</v>
       </c>
       <c r="K12">
-        <v>1.191763859511074</v>
+        <v>0.9987258323418192</v>
       </c>
       <c r="L12">
-        <v>0.9658891006809871</v>
+        <v>0.9973125257505165</v>
       </c>
       <c r="M12">
-        <v>0.8907999325171012</v>
+        <v>1.003076412775366</v>
       </c>
       <c r="N12">
-        <v>0.8907999325171012</v>
+        <v>1.003076412775366</v>
       </c>
       <c r="O12">
-        <v>0.9102464275270995</v>
+        <v>1.003720428390221</v>
       </c>
       <c r="P12">
-        <v>0.9911212415150921</v>
+        <v>1.001626219297517</v>
       </c>
       <c r="Q12">
-        <v>0.9911212415150921</v>
+        <v>1.001626219297517</v>
       </c>
       <c r="R12">
-        <v>1.041281896014087</v>
+        <v>1.000901122558593</v>
       </c>
       <c r="S12">
-        <v>1.041281896014087</v>
+        <v>1.000901122558593</v>
       </c>
       <c r="T12">
-        <v>0.9703999571172509</v>
+        <v>1.000105908982602</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.00044227108493</v>
+        <v>0.9928184573460428</v>
       </c>
       <c r="D13">
-        <v>0.9323921068624815</v>
+        <v>0.9966450292702128</v>
       </c>
       <c r="E13">
-        <v>0.9914124375423538</v>
+        <v>1.015730814326845</v>
       </c>
       <c r="F13">
-        <v>1.092053969813212</v>
+        <v>0.9775077655558232</v>
       </c>
       <c r="G13">
-        <v>1.020774004069899</v>
+        <v>1.028217124742862</v>
       </c>
       <c r="H13">
-        <v>0.9323921068624815</v>
+        <v>0.9966450292702128</v>
       </c>
       <c r="I13">
-        <v>1.028459455958266</v>
+        <v>0.9912301602136264</v>
       </c>
       <c r="J13">
-        <v>1.020774004069899</v>
+        <v>1.028217124742862</v>
       </c>
       <c r="K13">
-        <v>0.9323921068624815</v>
+        <v>0.9966450292702128</v>
       </c>
       <c r="L13">
-        <v>1.028459455958266</v>
+        <v>0.9912301602136264</v>
       </c>
       <c r="M13">
-        <v>1.024616730014083</v>
+        <v>1.009723642478244</v>
       </c>
       <c r="N13">
-        <v>1.024616730014083</v>
+        <v>1.009723642478244</v>
       </c>
       <c r="O13">
-        <v>1.013548632523506</v>
+        <v>1.011726033094445</v>
       </c>
       <c r="P13">
-        <v>0.993875188963549</v>
+        <v>1.005364104742234</v>
       </c>
       <c r="Q13">
-        <v>0.993875188963549</v>
+        <v>1.005364104742234</v>
       </c>
       <c r="R13">
-        <v>0.9785044184382822</v>
+        <v>1.003184335874229</v>
       </c>
       <c r="S13">
-        <v>0.9785044184382822</v>
+        <v>1.003184335874229</v>
       </c>
       <c r="T13">
-        <v>1.010922374221857</v>
+        <v>1.000358225242569</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.014347206604026</v>
+        <v>0.9839013995236934</v>
       </c>
       <c r="D14">
-        <v>0.787771418577992</v>
+        <v>0.9892160219246227</v>
       </c>
       <c r="E14">
-        <v>0.9404216355940348</v>
+        <v>1.036038991521985</v>
       </c>
       <c r="F14">
-        <v>1.35162782427869</v>
+        <v>0.949959684035651</v>
       </c>
       <c r="G14">
-        <v>1.021884075968069</v>
+        <v>1.062104447573318</v>
       </c>
       <c r="H14">
-        <v>0.787771418577992</v>
+        <v>0.9892160219246227</v>
       </c>
       <c r="I14">
-        <v>1.107077319400852</v>
+        <v>0.9817502287557264</v>
       </c>
       <c r="J14">
-        <v>1.021884075968069</v>
+        <v>1.062104447573318</v>
       </c>
       <c r="K14">
-        <v>0.787771418577992</v>
+        <v>0.9892160219246227</v>
       </c>
       <c r="L14">
-        <v>1.107077319400852</v>
+        <v>0.9817502287557264</v>
       </c>
       <c r="M14">
-        <v>1.064480697684461</v>
+        <v>1.021927338164522</v>
       </c>
       <c r="N14">
-        <v>1.064480697684461</v>
+        <v>1.021927338164522</v>
       </c>
       <c r="O14">
-        <v>1.023127676987652</v>
+        <v>1.02663122261701</v>
       </c>
       <c r="P14">
-        <v>0.9722442713156377</v>
+        <v>1.011023566084556</v>
       </c>
       <c r="Q14">
-        <v>0.9722442713156377</v>
+        <v>1.011023566084556</v>
       </c>
       <c r="R14">
-        <v>0.9261260581312263</v>
+        <v>1.005571680044572</v>
       </c>
       <c r="S14">
-        <v>0.9261260581312263</v>
+        <v>1.005571680044572</v>
       </c>
       <c r="T14">
-        <v>1.037188246737277</v>
+        <v>1.000495128889166</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.01709717973906</v>
+        <v>0.9942219704489831</v>
       </c>
       <c r="D15">
-        <v>1.108546735160906</v>
+        <v>0.9963280161114461</v>
       </c>
       <c r="E15">
-        <v>0.9757852064686257</v>
+        <v>1.012956979901712</v>
       </c>
       <c r="F15">
-        <v>0.9040444492177049</v>
+        <v>0.9817744544596916</v>
       </c>
       <c r="G15">
-        <v>0.9136383475102811</v>
+        <v>1.022199602654179</v>
       </c>
       <c r="H15">
-        <v>1.108546735160906</v>
+        <v>0.9963280161114461</v>
       </c>
       <c r="I15">
-        <v>0.9796214158284349</v>
+        <v>0.9933732124275004</v>
       </c>
       <c r="J15">
-        <v>0.9136383475102811</v>
+        <v>1.022199602654179</v>
       </c>
       <c r="K15">
-        <v>1.108546735160906</v>
+        <v>0.9963280161114461</v>
       </c>
       <c r="L15">
-        <v>0.9796214158284349</v>
+        <v>0.9933732124275004</v>
       </c>
       <c r="M15">
-        <v>0.9466298816693579</v>
+        <v>1.00778640754084</v>
       </c>
       <c r="N15">
-        <v>0.9466298816693579</v>
+        <v>1.00778640754084</v>
       </c>
       <c r="O15">
-        <v>0.9563483232691139</v>
+        <v>1.009509931661131</v>
       </c>
       <c r="P15">
-        <v>1.000602166166541</v>
+        <v>1.003966943731042</v>
       </c>
       <c r="Q15">
-        <v>1.000602166166541</v>
+        <v>1.003966943731042</v>
       </c>
       <c r="R15">
-        <v>1.027588308415132</v>
+        <v>1.002057211826143</v>
       </c>
       <c r="S15">
-        <v>1.027588308415132</v>
+        <v>1.002057211826143</v>
       </c>
       <c r="T15">
-        <v>0.9831222223208352</v>
+        <v>1.000142372667252</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8869904586695853</v>
+        <v>0.9888494306708471</v>
       </c>
       <c r="D16">
-        <v>0.9226809475833672</v>
+        <v>0.9929702518072635</v>
       </c>
       <c r="E16">
-        <v>1.252812006893091</v>
+        <v>1.025010645769137</v>
       </c>
       <c r="F16">
-        <v>0.6507258467276812</v>
+        <v>0.9647526604373322</v>
       </c>
       <c r="G16">
-        <v>1.43678572056773</v>
+        <v>1.042822578952436</v>
       </c>
       <c r="H16">
-        <v>0.9226809475833672</v>
+        <v>0.9929702518072635</v>
       </c>
       <c r="I16">
-        <v>0.8725961041978043</v>
+        <v>0.9871891958171737</v>
       </c>
       <c r="J16">
-        <v>1.43678572056773</v>
+        <v>1.042822578952436</v>
       </c>
       <c r="K16">
-        <v>0.9226809475833672</v>
+        <v>0.9929702518072635</v>
       </c>
       <c r="L16">
-        <v>0.8725961041978043</v>
+        <v>0.9871891958171737</v>
       </c>
       <c r="M16">
-        <v>1.154690912382767</v>
+        <v>1.015005887384805</v>
       </c>
       <c r="N16">
-        <v>1.154690912382767</v>
+        <v>1.015005887384805</v>
       </c>
       <c r="O16">
-        <v>1.187397943886208</v>
+        <v>1.018340806846249</v>
       </c>
       <c r="P16">
-        <v>1.077354257449634</v>
+        <v>1.007660675525624</v>
       </c>
       <c r="Q16">
-        <v>1.077354257449634</v>
+        <v>1.007660675525624</v>
       </c>
       <c r="R16">
-        <v>1.038685929983067</v>
+        <v>1.003988069596034</v>
       </c>
       <c r="S16">
-        <v>1.038685929983067</v>
+        <v>1.003988069596034</v>
       </c>
       <c r="T16">
-        <v>1.00376518077321</v>
+        <v>1.000265793909032</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9068339440567657</v>
+        <v>0.9785929422579478</v>
       </c>
       <c r="D17">
-        <v>0.925393848019452</v>
+        <v>0.9859990871812285</v>
       </c>
       <c r="E17">
-        <v>1.20706660929785</v>
+        <v>1.047952041834111</v>
       </c>
       <c r="F17">
-        <v>0.7269551160422527</v>
+        <v>0.9330363296757133</v>
       </c>
       <c r="G17">
-        <v>1.364265217868423</v>
+        <v>1.08236872095078</v>
       </c>
       <c r="H17">
-        <v>0.925393848019452</v>
+        <v>0.9859990871812285</v>
       </c>
       <c r="I17">
-        <v>0.8994233402635016</v>
+        <v>0.975612972919068</v>
       </c>
       <c r="J17">
-        <v>1.364265217868423</v>
+        <v>1.08236872095078</v>
       </c>
       <c r="K17">
-        <v>0.925393848019452</v>
+        <v>0.9859990871812285</v>
       </c>
       <c r="L17">
-        <v>0.8994233402635016</v>
+        <v>0.975612972919068</v>
       </c>
       <c r="M17">
-        <v>1.131844279065962</v>
+        <v>1.028990846934924</v>
       </c>
       <c r="N17">
-        <v>1.131844279065962</v>
+        <v>1.028990846934924</v>
       </c>
       <c r="O17">
-        <v>1.156918389143258</v>
+        <v>1.035311245234653</v>
       </c>
       <c r="P17">
-        <v>1.063027468717126</v>
+        <v>1.014660260350359</v>
       </c>
       <c r="Q17">
-        <v>1.063027468717126</v>
+        <v>1.014660260350359</v>
       </c>
       <c r="R17">
-        <v>1.028619063542707</v>
+        <v>1.007494967058076</v>
       </c>
       <c r="S17">
-        <v>1.028619063542707</v>
+        <v>1.007494967058076</v>
       </c>
       <c r="T17">
-        <v>1.004989679258041</v>
+        <v>1.000593682469808</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9469416337932559</v>
+        <v>0.968565131740464</v>
       </c>
       <c r="D18">
-        <v>0.9320388006543443</v>
+        <v>0.9792548225384606</v>
       </c>
       <c r="E18">
-        <v>1.114687700841913</v>
+        <v>1.07038530783582</v>
       </c>
       <c r="F18">
-        <v>0.8796540376658024</v>
+        <v>0.9020503649698403</v>
       </c>
       <c r="G18">
-        <v>1.217348317023612</v>
+        <v>1.120752594527541</v>
       </c>
       <c r="H18">
-        <v>0.9320388006543443</v>
+        <v>0.9792548225384606</v>
       </c>
       <c r="I18">
-        <v>0.9531735784882219</v>
+        <v>0.9642387126278048</v>
       </c>
       <c r="J18">
-        <v>1.217348317023612</v>
+        <v>1.120752594527541</v>
       </c>
       <c r="K18">
-        <v>0.9320388006543443</v>
+        <v>0.9792548225384606</v>
       </c>
       <c r="L18">
-        <v>0.9531735784882219</v>
+        <v>0.9642387126278048</v>
       </c>
       <c r="M18">
-        <v>1.085260947755917</v>
+        <v>1.042495653577673</v>
       </c>
       <c r="N18">
-        <v>1.085260947755917</v>
+        <v>1.042495653577673</v>
       </c>
       <c r="O18">
-        <v>1.095069865451249</v>
+        <v>1.051792204997055</v>
       </c>
       <c r="P18">
-        <v>1.034186898722059</v>
+        <v>1.021415376564602</v>
       </c>
       <c r="Q18">
-        <v>1.034186898722059</v>
+        <v>1.021415376564602</v>
       </c>
       <c r="R18">
-        <v>1.008649874205131</v>
+        <v>1.010875238058067</v>
       </c>
       <c r="S18">
-        <v>1.008649874205131</v>
+        <v>1.010875238058067</v>
       </c>
       <c r="T18">
-        <v>1.007307344744525</v>
+        <v>1.000874489039988</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.941780968271689</v>
+        <v>0.999608198636483</v>
       </c>
       <c r="D19">
-        <v>0.9174627412799627</v>
+        <v>0.9995549299149148</v>
       </c>
       <c r="E19">
-        <v>1.124986461438669</v>
+        <v>1.000838095087441</v>
       </c>
       <c r="F19">
-        <v>0.8784918754760873</v>
+        <v>0.9990878394695414</v>
       </c>
       <c r="G19">
-        <v>1.240866405412204</v>
+        <v>1.001600643192188</v>
       </c>
       <c r="H19">
-        <v>0.9174627412799627</v>
+        <v>0.9995549299149148</v>
       </c>
       <c r="I19">
-        <v>0.9519160591615916</v>
+        <v>0.9996334692160127</v>
       </c>
       <c r="J19">
-        <v>1.240866405412204</v>
+        <v>1.001600643192188</v>
       </c>
       <c r="K19">
-        <v>0.9174627412799627</v>
+        <v>0.9995549299149148</v>
       </c>
       <c r="L19">
-        <v>0.9519160591615916</v>
+        <v>0.9996334692160127</v>
       </c>
       <c r="M19">
-        <v>1.096391232286898</v>
+        <v>1.0006170562041</v>
       </c>
       <c r="N19">
-        <v>1.096391232286898</v>
+        <v>1.0006170562041</v>
       </c>
       <c r="O19">
-        <v>1.105922975337488</v>
+        <v>1.00069073583188</v>
       </c>
       <c r="P19">
-        <v>1.036748401951253</v>
+        <v>1.000263014107705</v>
       </c>
       <c r="Q19">
-        <v>1.036748401951253</v>
+        <v>1.000263014107705</v>
       </c>
       <c r="R19">
-        <v>1.006926986783431</v>
+        <v>1.000085993059507</v>
       </c>
       <c r="S19">
-        <v>1.006926986783431</v>
+        <v>1.000085993059507</v>
       </c>
       <c r="T19">
-        <v>1.009250751840034</v>
+        <v>1.000053862586097</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999328821295177</v>
+        <v>0.9991165812461251</v>
       </c>
       <c r="D20">
-        <v>0.9993594012252653</v>
+        <v>0.9992232173454886</v>
       </c>
       <c r="E20">
-        <v>1.000078334018128</v>
+        <v>1.001873208570357</v>
       </c>
       <c r="F20">
-        <v>1.000612944952434</v>
+        <v>0.9977986656535278</v>
       </c>
       <c r="G20">
-        <v>1.000486892787028</v>
+        <v>1.003562403928244</v>
       </c>
       <c r="H20">
-        <v>0.9993594012252653</v>
+        <v>0.9992232173454886</v>
       </c>
       <c r="I20">
-        <v>1.000158694792475</v>
+        <v>0.9990848072332763</v>
       </c>
       <c r="J20">
-        <v>1.000486892787028</v>
+        <v>1.003562403928244</v>
       </c>
       <c r="K20">
-        <v>0.9993594012252653</v>
+        <v>0.9992232173454886</v>
       </c>
       <c r="L20">
-        <v>1.000158694792475</v>
+        <v>0.9990848072332763</v>
       </c>
       <c r="M20">
-        <v>1.000322793789751</v>
+        <v>1.00132360558076</v>
       </c>
       <c r="N20">
-        <v>1.000322793789751</v>
+        <v>1.00132360558076</v>
       </c>
       <c r="O20">
-        <v>1.00024130719921</v>
+        <v>1.001506806577293</v>
       </c>
       <c r="P20">
-        <v>1.000001662934923</v>
+        <v>1.000623476169003</v>
       </c>
       <c r="Q20">
-        <v>1.000001662934923</v>
+        <v>1.000623476169003</v>
       </c>
       <c r="R20">
-        <v>0.9998410975075085</v>
+        <v>1.000273411463125</v>
       </c>
       <c r="S20">
-        <v>0.9998410975075085</v>
+        <v>1.000273411463125</v>
       </c>
       <c r="T20">
-        <v>1.000104858317475</v>
+        <v>1.00010981399617</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9995183111830962</v>
+        <v>0.9988533252008215</v>
       </c>
       <c r="D21">
-        <v>1.000085323919915</v>
+        <v>0.9994254548513405</v>
       </c>
       <c r="E21">
-        <v>1.001109901054921</v>
+        <v>1.002459345931466</v>
       </c>
       <c r="F21">
-        <v>0.9979813208750302</v>
+        <v>0.9966193262673354</v>
       </c>
       <c r="G21">
-        <v>1.001686963109937</v>
+        <v>1.004560951366333</v>
       </c>
       <c r="H21">
-        <v>1.000085323919915</v>
+        <v>0.9994254548513405</v>
       </c>
       <c r="I21">
-        <v>0.9993156653731124</v>
+        <v>0.9986320050152714</v>
       </c>
       <c r="J21">
-        <v>1.001686963109937</v>
+        <v>1.004560951366333</v>
       </c>
       <c r="K21">
-        <v>1.000085323919915</v>
+        <v>0.9994254548513405</v>
       </c>
       <c r="L21">
-        <v>0.9993156653731124</v>
+        <v>0.9986320050152714</v>
       </c>
       <c r="M21">
-        <v>1.000501314241524</v>
+        <v>1.001596478190802</v>
       </c>
       <c r="N21">
-        <v>1.000501314241524</v>
+        <v>1.001596478190802</v>
       </c>
       <c r="O21">
-        <v>1.000704176512657</v>
+        <v>1.001884100771023</v>
       </c>
       <c r="P21">
-        <v>1.000362650800988</v>
+        <v>1.000872803744315</v>
       </c>
       <c r="Q21">
-        <v>1.000362650800988</v>
+        <v>1.000872803744315</v>
       </c>
       <c r="R21">
-        <v>1.00029331908072</v>
+        <v>1.000510966521071</v>
       </c>
       <c r="S21">
-        <v>1.00029331908072</v>
+        <v>1.000510966521071</v>
       </c>
       <c r="T21">
-        <v>0.9999495809193352</v>
+        <v>1.000091734772095</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9981111612459772</v>
+        <v>0.9974427761215319</v>
       </c>
       <c r="D22">
-        <v>0.9974094571655546</v>
+        <v>0.9981066016226974</v>
       </c>
       <c r="E22">
-        <v>1.00406150560258</v>
+        <v>1.005474656809969</v>
       </c>
       <c r="F22">
-        <v>0.9960149329193756</v>
+        <v>0.9930775382501944</v>
       </c>
       <c r="G22">
-        <v>1.007713556484617</v>
+        <v>1.010258792304054</v>
       </c>
       <c r="H22">
-        <v>0.9974094571655546</v>
+        <v>0.9981066016226974</v>
       </c>
       <c r="I22">
-        <v>0.9983730905559248</v>
+        <v>0.997200733652159</v>
       </c>
       <c r="J22">
-        <v>1.007713556484617</v>
+        <v>1.010258792304054</v>
       </c>
       <c r="K22">
-        <v>0.9974094571655546</v>
+        <v>0.9981066016226974</v>
       </c>
       <c r="L22">
-        <v>0.9983730905559248</v>
+        <v>0.997200733652159</v>
       </c>
       <c r="M22">
-        <v>1.003043323520271</v>
+        <v>1.003729762978107</v>
       </c>
       <c r="N22">
-        <v>1.003043323520271</v>
+        <v>1.003729762978107</v>
       </c>
       <c r="O22">
-        <v>1.003382717547707</v>
+        <v>1.004311394255394</v>
       </c>
       <c r="P22">
-        <v>1.001165368068699</v>
+        <v>1.001855375859637</v>
       </c>
       <c r="Q22">
-        <v>1.001165368068699</v>
+        <v>1.001855375859637</v>
       </c>
       <c r="R22">
-        <v>1.000226390342913</v>
+        <v>1.000918182300402</v>
       </c>
       <c r="S22">
-        <v>1.000226390342913</v>
+        <v>1.000918182300402</v>
       </c>
       <c r="T22">
-        <v>1.000280617329005</v>
+        <v>1.000260183126768</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.995984625253471</v>
+      </c>
+      <c r="D23">
+        <v>0.9986290799255361</v>
+      </c>
+      <c r="E23">
+        <v>1.008590008576468</v>
+      </c>
+      <c r="F23">
+        <v>0.9877147197296462</v>
+      </c>
+      <c r="G23">
+        <v>1.015713615238844</v>
+      </c>
+      <c r="H23">
+        <v>0.9986290799255361</v>
+      </c>
+      <c r="I23">
+        <v>0.9949503053527794</v>
+      </c>
+      <c r="J23">
+        <v>1.015713615238844</v>
+      </c>
+      <c r="K23">
+        <v>0.9986290799255361</v>
+      </c>
+      <c r="L23">
+        <v>0.9949503053527794</v>
+      </c>
+      <c r="M23">
+        <v>1.005331960295812</v>
+      </c>
+      <c r="N23">
+        <v>1.005331960295812</v>
+      </c>
+      <c r="O23">
+        <v>1.006417976389364</v>
+      </c>
+      <c r="P23">
+        <v>1.003097666839053</v>
+      </c>
+      <c r="Q23">
+        <v>1.003097666839053</v>
+      </c>
+      <c r="R23">
+        <v>1.001980520110674</v>
+      </c>
+      <c r="S23">
+        <v>1.001980520110674</v>
+      </c>
+      <c r="T23">
+        <v>1.000263725679458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.031765287095218</v>
+      </c>
+      <c r="D24">
+        <v>1.191763859511074</v>
+      </c>
+      <c r="E24">
+        <v>0.9491394175470963</v>
+      </c>
+      <c r="F24">
+        <v>0.8681313135159158</v>
+      </c>
+      <c r="G24">
+        <v>0.8157107643532153</v>
+      </c>
+      <c r="H24">
+        <v>1.191763859511074</v>
+      </c>
+      <c r="I24">
+        <v>0.9658891006809871</v>
+      </c>
+      <c r="J24">
+        <v>0.8157107643532153</v>
+      </c>
+      <c r="K24">
+        <v>1.191763859511074</v>
+      </c>
+      <c r="L24">
+        <v>0.9658891006809871</v>
+      </c>
+      <c r="M24">
+        <v>0.8907999325171012</v>
+      </c>
+      <c r="N24">
+        <v>0.8907999325171012</v>
+      </c>
+      <c r="O24">
+        <v>0.9102464275270995</v>
+      </c>
+      <c r="P24">
+        <v>0.9911212415150921</v>
+      </c>
+      <c r="Q24">
+        <v>0.9911212415150921</v>
+      </c>
+      <c r="R24">
+        <v>1.041281896014087</v>
+      </c>
+      <c r="S24">
+        <v>1.041281896014087</v>
+      </c>
+      <c r="T24">
+        <v>0.9703999571172509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.00044227108493</v>
+      </c>
+      <c r="D25">
+        <v>0.9323921068624815</v>
+      </c>
+      <c r="E25">
+        <v>0.9914124375423538</v>
+      </c>
+      <c r="F25">
+        <v>1.092053969813212</v>
+      </c>
+      <c r="G25">
+        <v>1.020774004069899</v>
+      </c>
+      <c r="H25">
+        <v>0.9323921068624815</v>
+      </c>
+      <c r="I25">
+        <v>1.028459455958266</v>
+      </c>
+      <c r="J25">
+        <v>1.020774004069899</v>
+      </c>
+      <c r="K25">
+        <v>0.9323921068624815</v>
+      </c>
+      <c r="L25">
+        <v>1.028459455958266</v>
+      </c>
+      <c r="M25">
+        <v>1.024616730014083</v>
+      </c>
+      <c r="N25">
+        <v>1.024616730014083</v>
+      </c>
+      <c r="O25">
+        <v>1.013548632523506</v>
+      </c>
+      <c r="P25">
+        <v>0.993875188963549</v>
+      </c>
+      <c r="Q25">
+        <v>0.993875188963549</v>
+      </c>
+      <c r="R25">
+        <v>0.9785044184382822</v>
+      </c>
+      <c r="S25">
+        <v>0.9785044184382822</v>
+      </c>
+      <c r="T25">
+        <v>1.010922374221857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.014347206604026</v>
+      </c>
+      <c r="D26">
+        <v>0.787771418577992</v>
+      </c>
+      <c r="E26">
+        <v>0.9404216355940348</v>
+      </c>
+      <c r="F26">
+        <v>1.35162782427869</v>
+      </c>
+      <c r="G26">
+        <v>1.021884075968069</v>
+      </c>
+      <c r="H26">
+        <v>0.787771418577992</v>
+      </c>
+      <c r="I26">
+        <v>1.107077319400852</v>
+      </c>
+      <c r="J26">
+        <v>1.021884075968069</v>
+      </c>
+      <c r="K26">
+        <v>0.787771418577992</v>
+      </c>
+      <c r="L26">
+        <v>1.107077319400852</v>
+      </c>
+      <c r="M26">
+        <v>1.064480697684461</v>
+      </c>
+      <c r="N26">
+        <v>1.064480697684461</v>
+      </c>
+      <c r="O26">
+        <v>1.023127676987652</v>
+      </c>
+      <c r="P26">
+        <v>0.9722442713156377</v>
+      </c>
+      <c r="Q26">
+        <v>0.9722442713156377</v>
+      </c>
+      <c r="R26">
+        <v>0.9261260581312263</v>
+      </c>
+      <c r="S26">
+        <v>0.9261260581312263</v>
+      </c>
+      <c r="T26">
+        <v>1.037188246737277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.01709717973906</v>
+      </c>
+      <c r="D27">
+        <v>1.108546735160906</v>
+      </c>
+      <c r="E27">
+        <v>0.9757852064686257</v>
+      </c>
+      <c r="F27">
+        <v>0.9040444492177049</v>
+      </c>
+      <c r="G27">
+        <v>0.9136383475102811</v>
+      </c>
+      <c r="H27">
+        <v>1.108546735160906</v>
+      </c>
+      <c r="I27">
+        <v>0.9796214158284349</v>
+      </c>
+      <c r="J27">
+        <v>0.9136383475102811</v>
+      </c>
+      <c r="K27">
+        <v>1.108546735160906</v>
+      </c>
+      <c r="L27">
+        <v>0.9796214158284349</v>
+      </c>
+      <c r="M27">
+        <v>0.9466298816693579</v>
+      </c>
+      <c r="N27">
+        <v>0.9466298816693579</v>
+      </c>
+      <c r="O27">
+        <v>0.9563483232691139</v>
+      </c>
+      <c r="P27">
+        <v>1.000602166166541</v>
+      </c>
+      <c r="Q27">
+        <v>1.000602166166541</v>
+      </c>
+      <c r="R27">
+        <v>1.027588308415132</v>
+      </c>
+      <c r="S27">
+        <v>1.027588308415132</v>
+      </c>
+      <c r="T27">
+        <v>0.9831222223208352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8869904586695853</v>
+      </c>
+      <c r="D28">
+        <v>0.9226809475833672</v>
+      </c>
+      <c r="E28">
+        <v>1.252812006893091</v>
+      </c>
+      <c r="F28">
+        <v>0.6507258467276812</v>
+      </c>
+      <c r="G28">
+        <v>1.43678572056773</v>
+      </c>
+      <c r="H28">
+        <v>0.9226809475833672</v>
+      </c>
+      <c r="I28">
+        <v>0.8725961041978043</v>
+      </c>
+      <c r="J28">
+        <v>1.43678572056773</v>
+      </c>
+      <c r="K28">
+        <v>0.9226809475833672</v>
+      </c>
+      <c r="L28">
+        <v>0.8725961041978043</v>
+      </c>
+      <c r="M28">
+        <v>1.154690912382767</v>
+      </c>
+      <c r="N28">
+        <v>1.154690912382767</v>
+      </c>
+      <c r="O28">
+        <v>1.187397943886208</v>
+      </c>
+      <c r="P28">
+        <v>1.077354257449634</v>
+      </c>
+      <c r="Q28">
+        <v>1.077354257449634</v>
+      </c>
+      <c r="R28">
+        <v>1.038685929983067</v>
+      </c>
+      <c r="S28">
+        <v>1.038685929983067</v>
+      </c>
+      <c r="T28">
+        <v>1.00376518077321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9068339440567657</v>
+      </c>
+      <c r="D29">
+        <v>0.925393848019452</v>
+      </c>
+      <c r="E29">
+        <v>1.20706660929785</v>
+      </c>
+      <c r="F29">
+        <v>0.7269551160422527</v>
+      </c>
+      <c r="G29">
+        <v>1.364265217868423</v>
+      </c>
+      <c r="H29">
+        <v>0.925393848019452</v>
+      </c>
+      <c r="I29">
+        <v>0.8994233402635016</v>
+      </c>
+      <c r="J29">
+        <v>1.364265217868423</v>
+      </c>
+      <c r="K29">
+        <v>0.925393848019452</v>
+      </c>
+      <c r="L29">
+        <v>0.8994233402635016</v>
+      </c>
+      <c r="M29">
+        <v>1.131844279065962</v>
+      </c>
+      <c r="N29">
+        <v>1.131844279065962</v>
+      </c>
+      <c r="O29">
+        <v>1.156918389143258</v>
+      </c>
+      <c r="P29">
+        <v>1.063027468717126</v>
+      </c>
+      <c r="Q29">
+        <v>1.063027468717126</v>
+      </c>
+      <c r="R29">
+        <v>1.028619063542707</v>
+      </c>
+      <c r="S29">
+        <v>1.028619063542707</v>
+      </c>
+      <c r="T29">
+        <v>1.004989679258041</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9469416337932559</v>
+      </c>
+      <c r="D30">
+        <v>0.9320388006543443</v>
+      </c>
+      <c r="E30">
+        <v>1.114687700841913</v>
+      </c>
+      <c r="F30">
+        <v>0.8796540376658024</v>
+      </c>
+      <c r="G30">
+        <v>1.217348317023612</v>
+      </c>
+      <c r="H30">
+        <v>0.9320388006543443</v>
+      </c>
+      <c r="I30">
+        <v>0.9531735784882219</v>
+      </c>
+      <c r="J30">
+        <v>1.217348317023612</v>
+      </c>
+      <c r="K30">
+        <v>0.9320388006543443</v>
+      </c>
+      <c r="L30">
+        <v>0.9531735784882219</v>
+      </c>
+      <c r="M30">
+        <v>1.085260947755917</v>
+      </c>
+      <c r="N30">
+        <v>1.085260947755917</v>
+      </c>
+      <c r="O30">
+        <v>1.095069865451249</v>
+      </c>
+      <c r="P30">
+        <v>1.034186898722059</v>
+      </c>
+      <c r="Q30">
+        <v>1.034186898722059</v>
+      </c>
+      <c r="R30">
+        <v>1.008649874205131</v>
+      </c>
+      <c r="S30">
+        <v>1.008649874205131</v>
+      </c>
+      <c r="T30">
+        <v>1.007307344744525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.941780968271689</v>
+      </c>
+      <c r="D31">
+        <v>0.9174627412799627</v>
+      </c>
+      <c r="E31">
+        <v>1.124986461438669</v>
+      </c>
+      <c r="F31">
+        <v>0.8784918754760873</v>
+      </c>
+      <c r="G31">
+        <v>1.240866405412204</v>
+      </c>
+      <c r="H31">
+        <v>0.9174627412799627</v>
+      </c>
+      <c r="I31">
+        <v>0.9519160591615916</v>
+      </c>
+      <c r="J31">
+        <v>1.240866405412204</v>
+      </c>
+      <c r="K31">
+        <v>0.9174627412799627</v>
+      </c>
+      <c r="L31">
+        <v>0.9519160591615916</v>
+      </c>
+      <c r="M31">
+        <v>1.096391232286898</v>
+      </c>
+      <c r="N31">
+        <v>1.096391232286898</v>
+      </c>
+      <c r="O31">
+        <v>1.105922975337488</v>
+      </c>
+      <c r="P31">
+        <v>1.036748401951253</v>
+      </c>
+      <c r="Q31">
+        <v>1.036748401951253</v>
+      </c>
+      <c r="R31">
+        <v>1.006926986783431</v>
+      </c>
+      <c r="S31">
+        <v>1.006926986783431</v>
+      </c>
+      <c r="T31">
+        <v>1.009250751840034</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.8710093052054793</v>
+      </c>
+      <c r="D32">
+        <v>0.9344397583561641</v>
+      </c>
+      <c r="E32">
+        <v>1.289881642739726</v>
+      </c>
+      <c r="F32">
+        <v>0.5754388001369865</v>
+      </c>
+      <c r="G32">
+        <v>1.492148408630137</v>
+      </c>
+      <c r="H32">
+        <v>0.9344397583561641</v>
+      </c>
+      <c r="I32">
+        <v>0.8453867987671233</v>
+      </c>
+      <c r="J32">
+        <v>1.492148408630137</v>
+      </c>
+      <c r="K32">
+        <v>0.9344397583561641</v>
+      </c>
+      <c r="L32">
+        <v>0.8453867987671233</v>
+      </c>
+      <c r="M32">
+        <v>1.16876760369863</v>
+      </c>
+      <c r="N32">
+        <v>1.16876760369863</v>
+      </c>
+      <c r="O32">
+        <v>1.209138950045662</v>
+      </c>
+      <c r="P32">
+        <v>1.090658321917808</v>
+      </c>
+      <c r="Q32">
+        <v>1.090658321917808</v>
+      </c>
+      <c r="R32">
+        <v>1.051603681027397</v>
+      </c>
+      <c r="S32">
+        <v>1.051603681027397</v>
+      </c>
+      <c r="T32">
+        <v>1.001384118972602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.024516017894737</v>
+      </c>
+      <c r="D33">
+        <v>0.868363914736842</v>
+      </c>
+      <c r="E33">
+        <v>0.8989434447368422</v>
+      </c>
+      <c r="F33">
+        <v>1.374547666842105</v>
+      </c>
+      <c r="G33">
+        <v>1.005394897894737</v>
+      </c>
+      <c r="H33">
+        <v>0.868363914736842</v>
+      </c>
+      <c r="I33">
+        <v>1.09057145</v>
+      </c>
+      <c r="J33">
+        <v>1.005394897894737</v>
+      </c>
+      <c r="K33">
+        <v>0.868363914736842</v>
+      </c>
+      <c r="L33">
+        <v>1.09057145</v>
+      </c>
+      <c r="M33">
+        <v>1.047983173947368</v>
+      </c>
+      <c r="N33">
+        <v>1.047983173947368</v>
+      </c>
+      <c r="O33">
+        <v>0.9983032642105263</v>
+      </c>
+      <c r="P33">
+        <v>0.9881100875438596</v>
+      </c>
+      <c r="Q33">
+        <v>0.9881100875438596</v>
+      </c>
+      <c r="R33">
+        <v>0.9581735443421053</v>
+      </c>
+      <c r="S33">
+        <v>0.9581735443421053</v>
+      </c>
+      <c r="T33">
+        <v>1.04372289868421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.070513331578948</v>
+      </c>
+      <c r="D34">
+        <v>1.091711147368421</v>
+      </c>
+      <c r="E34">
+        <v>0.8313715421052631</v>
+      </c>
+      <c r="F34">
+        <v>1.223202735789474</v>
+      </c>
+      <c r="G34">
+        <v>0.7253494259473686</v>
+      </c>
+      <c r="H34">
+        <v>1.091711147368421</v>
+      </c>
+      <c r="I34">
+        <v>1.060598181578947</v>
+      </c>
+      <c r="J34">
+        <v>0.7253494259473686</v>
+      </c>
+      <c r="K34">
+        <v>1.091711147368421</v>
+      </c>
+      <c r="L34">
+        <v>1.060598181578947</v>
+      </c>
+      <c r="M34">
+        <v>0.892973803763158</v>
+      </c>
+      <c r="N34">
+        <v>0.892973803763158</v>
+      </c>
+      <c r="O34">
+        <v>0.8724397165438598</v>
+      </c>
+      <c r="P34">
+        <v>0.9592195849649124</v>
+      </c>
+      <c r="Q34">
+        <v>0.9592195849649124</v>
+      </c>
+      <c r="R34">
+        <v>0.9923424755657895</v>
+      </c>
+      <c r="S34">
+        <v>0.9923424755657895</v>
+      </c>
+      <c r="T34">
+        <v>1.000457727394737</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.7851116665671326</v>
+      </c>
+      <c r="D35">
+        <v>0.6942873737666481</v>
+      </c>
+      <c r="E35">
+        <v>1.460869117273427</v>
+      </c>
+      <c r="F35">
+        <v>0.55414037025527</v>
+      </c>
+      <c r="G35">
+        <v>1.887313635701267</v>
+      </c>
+      <c r="H35">
+        <v>0.6942873737666481</v>
+      </c>
+      <c r="I35">
+        <v>0.8233301448383037</v>
+      </c>
+      <c r="J35">
+        <v>1.887313635701267</v>
+      </c>
+      <c r="K35">
+        <v>0.6942873737666481</v>
+      </c>
+      <c r="L35">
+        <v>0.8233301448383037</v>
+      </c>
+      <c r="M35">
+        <v>1.355321890269785</v>
+      </c>
+      <c r="N35">
+        <v>1.355321890269785</v>
+      </c>
+      <c r="O35">
+        <v>1.390504299270999</v>
+      </c>
+      <c r="P35">
+        <v>1.134977051435406</v>
+      </c>
+      <c r="Q35">
+        <v>1.134977051435406</v>
+      </c>
+      <c r="R35">
+        <v>1.024804632018217</v>
+      </c>
+      <c r="S35">
+        <v>1.024804632018217</v>
+      </c>
+      <c r="T35">
+        <v>1.034175384733675</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999328821295177</v>
+      </c>
+      <c r="D36">
+        <v>0.9993594012252653</v>
+      </c>
+      <c r="E36">
+        <v>1.000078334018128</v>
+      </c>
+      <c r="F36">
+        <v>1.000612944952434</v>
+      </c>
+      <c r="G36">
+        <v>1.000486892787028</v>
+      </c>
+      <c r="H36">
+        <v>0.9993594012252653</v>
+      </c>
+      <c r="I36">
+        <v>1.000158694792475</v>
+      </c>
+      <c r="J36">
+        <v>1.000486892787028</v>
+      </c>
+      <c r="K36">
+        <v>0.9993594012252653</v>
+      </c>
+      <c r="L36">
+        <v>1.000158694792475</v>
+      </c>
+      <c r="M36">
+        <v>1.000322793789751</v>
+      </c>
+      <c r="N36">
+        <v>1.000322793789751</v>
+      </c>
+      <c r="O36">
+        <v>1.00024130719921</v>
+      </c>
+      <c r="P36">
+        <v>1.000001662934923</v>
+      </c>
+      <c r="Q36">
+        <v>1.000001662934923</v>
+      </c>
+      <c r="R36">
+        <v>0.9998410975075085</v>
+      </c>
+      <c r="S36">
+        <v>0.9998410975075085</v>
+      </c>
+      <c r="T36">
+        <v>1.000104858317475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9995183111830962</v>
+      </c>
+      <c r="D37">
+        <v>1.000085323919915</v>
+      </c>
+      <c r="E37">
+        <v>1.001109901054921</v>
+      </c>
+      <c r="F37">
+        <v>0.9979813208750302</v>
+      </c>
+      <c r="G37">
+        <v>1.001686963109937</v>
+      </c>
+      <c r="H37">
+        <v>1.000085323919915</v>
+      </c>
+      <c r="I37">
+        <v>0.9993156653731124</v>
+      </c>
+      <c r="J37">
+        <v>1.001686963109937</v>
+      </c>
+      <c r="K37">
+        <v>1.000085323919915</v>
+      </c>
+      <c r="L37">
+        <v>0.9993156653731124</v>
+      </c>
+      <c r="M37">
+        <v>1.000501314241524</v>
+      </c>
+      <c r="N37">
+        <v>1.000501314241524</v>
+      </c>
+      <c r="O37">
+        <v>1.000704176512657</v>
+      </c>
+      <c r="P37">
+        <v>1.000362650800988</v>
+      </c>
+      <c r="Q37">
+        <v>1.000362650800988</v>
+      </c>
+      <c r="R37">
+        <v>1.00029331908072</v>
+      </c>
+      <c r="S37">
+        <v>1.00029331908072</v>
+      </c>
+      <c r="T37">
+        <v>0.9999495809193352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9981111612459772</v>
+      </c>
+      <c r="D38">
+        <v>0.9974094571655546</v>
+      </c>
+      <c r="E38">
+        <v>1.00406150560258</v>
+      </c>
+      <c r="F38">
+        <v>0.9960149329193756</v>
+      </c>
+      <c r="G38">
+        <v>1.007713556484617</v>
+      </c>
+      <c r="H38">
+        <v>0.9974094571655546</v>
+      </c>
+      <c r="I38">
+        <v>0.9983730905559248</v>
+      </c>
+      <c r="J38">
+        <v>1.007713556484617</v>
+      </c>
+      <c r="K38">
+        <v>0.9974094571655546</v>
+      </c>
+      <c r="L38">
+        <v>0.9983730905559248</v>
+      </c>
+      <c r="M38">
+        <v>1.003043323520271</v>
+      </c>
+      <c r="N38">
+        <v>1.003043323520271</v>
+      </c>
+      <c r="O38">
+        <v>1.003382717547707</v>
+      </c>
+      <c r="P38">
+        <v>1.001165368068699</v>
+      </c>
+      <c r="Q38">
+        <v>1.001165368068699</v>
+      </c>
+      <c r="R38">
+        <v>1.000226390342913</v>
+      </c>
+      <c r="S38">
+        <v>1.000226390342913</v>
+      </c>
+      <c r="T38">
+        <v>1.000280617329005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9955192131159265</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9923761996644128</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.009568357521425</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.992201766724177</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.019222555319453</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9923761996644128</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9966216042395454</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.019222555319453</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9923761996644128</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9966216042395454</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.007922079779499</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.007922079779499</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.008470839026808</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.002740119741137</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.002740119741137</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000149139721956</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000149139721956</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000918282764157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.031284936887958</v>
+      </c>
+      <c r="D40">
+        <v>1.036057228051348</v>
+      </c>
+      <c r="E40">
+        <v>0.9286209471250341</v>
+      </c>
+      <c r="F40">
+        <v>1.086956746934945</v>
+      </c>
+      <c r="G40">
+        <v>0.8815319130920666</v>
+      </c>
+      <c r="H40">
+        <v>1.036057228051348</v>
+      </c>
+      <c r="I40">
+        <v>1.029116909966006</v>
+      </c>
+      <c r="J40">
+        <v>0.8815319130920666</v>
+      </c>
+      <c r="K40">
+        <v>1.036057228051348</v>
+      </c>
+      <c r="L40">
+        <v>1.029116909966006</v>
+      </c>
+      <c r="M40">
+        <v>0.9553244115290365</v>
+      </c>
+      <c r="N40">
+        <v>0.9553244115290365</v>
+      </c>
+      <c r="O40">
+        <v>0.9464232567277023</v>
+      </c>
+      <c r="P40">
+        <v>0.9822353503698071</v>
+      </c>
+      <c r="Q40">
+        <v>0.9822353503698071</v>
+      </c>
+      <c r="R40">
+        <v>0.9956908197901924</v>
+      </c>
+      <c r="S40">
+        <v>0.9956908197901924</v>
+      </c>
+      <c r="T40">
+        <v>0.9989281136762265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9998940683275584</v>
+      </c>
+      <c r="D41">
+        <v>1.022038887673055</v>
+      </c>
+      <c r="E41">
+        <v>1.004326984984684</v>
+      </c>
+      <c r="F41">
+        <v>0.9635794450395022</v>
+      </c>
+      <c r="G41">
+        <v>0.9920441958761037</v>
+      </c>
+      <c r="H41">
+        <v>1.022038887673055</v>
+      </c>
+      <c r="I41">
+        <v>0.9908350986563071</v>
+      </c>
+      <c r="J41">
+        <v>0.9920441958761037</v>
+      </c>
+      <c r="K41">
+        <v>1.022038887673055</v>
+      </c>
+      <c r="L41">
+        <v>0.9908350986563071</v>
+      </c>
+      <c r="M41">
+        <v>0.9914396472662055</v>
+      </c>
+      <c r="N41">
+        <v>0.9914396472662055</v>
+      </c>
+      <c r="O41">
+        <v>0.9957354265056982</v>
+      </c>
+      <c r="P41">
+        <v>1.001639394068489</v>
+      </c>
+      <c r="Q41">
+        <v>1.001639394068489</v>
+      </c>
+      <c r="R41">
+        <v>1.00673926746963</v>
+      </c>
+      <c r="S41">
+        <v>1.00673926746963</v>
+      </c>
+      <c r="T41">
+        <v>0.9954531134262017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9360235350398919</v>
+      </c>
+      <c r="D42">
+        <v>0.8995842329240697</v>
+      </c>
+      <c r="E42">
+        <v>1.144642888696703</v>
+      </c>
+      <c r="F42">
+        <v>0.845380233129729</v>
+      </c>
+      <c r="G42">
+        <v>1.266148534365446</v>
+      </c>
+      <c r="H42">
+        <v>0.8995842329240697</v>
+      </c>
+      <c r="I42">
+        <v>0.9506655523587977</v>
+      </c>
+      <c r="J42">
+        <v>1.266148534365446</v>
+      </c>
+      <c r="K42">
+        <v>0.8995842329240697</v>
+      </c>
+      <c r="L42">
+        <v>0.9506655523587977</v>
+      </c>
+      <c r="M42">
+        <v>1.108407043362122</v>
+      </c>
+      <c r="N42">
+        <v>1.108407043362122</v>
+      </c>
+      <c r="O42">
+        <v>1.120485658473649</v>
+      </c>
+      <c r="P42">
+        <v>1.038799439882771</v>
+      </c>
+      <c r="Q42">
+        <v>1.038799439882771</v>
+      </c>
+      <c r="R42">
+        <v>1.003995638143096</v>
+      </c>
+      <c r="S42">
+        <v>1.003995638143096</v>
+      </c>
+      <c r="T42">
+        <v>1.00707416275244</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,43 +85,40 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9963280161114462</v>
+        <v>0.9991165812461251</v>
       </c>
       <c r="D3">
-        <v>1.022199602654179</v>
+        <v>0.9992232173454886</v>
       </c>
       <c r="E3">
-        <v>0.9933732124275004</v>
+        <v>1.001873208570357</v>
       </c>
       <c r="F3">
-        <v>0.9963280161114462</v>
+        <v>0.9977986656535278</v>
       </c>
       <c r="G3">
-        <v>0.9817744544596916</v>
+        <v>1.003562403928244</v>
       </c>
       <c r="H3">
-        <v>1.012956979901712</v>
+        <v>0.9992232173454886</v>
       </c>
       <c r="I3">
-        <v>0.9942219704489831</v>
+        <v>0.9990848072332763</v>
       </c>
       <c r="J3">
-        <v>1.022199602654179</v>
+        <v>1.003562403928244</v>
       </c>
       <c r="K3">
-        <v>0.9963280161114462</v>
+        <v>0.9992232173454886</v>
       </c>
       <c r="L3">
-        <v>0.9933732124275004</v>
+        <v>0.9990848072332763</v>
       </c>
       <c r="M3">
-        <v>1.00778640754084</v>
+        <v>1.00132360558076</v>
       </c>
       <c r="N3">
-        <v>1.00778640754084</v>
+        <v>1.00132360558076</v>
       </c>
       <c r="O3">
-        <v>1.009509931661131</v>
+        <v>1.001506806577293</v>
       </c>
       <c r="P3">
-        <v>1.003966943731042</v>
+        <v>1.000623476169003</v>
       </c>
       <c r="Q3">
-        <v>1.003966943731042</v>
+        <v>1.000623476169003</v>
       </c>
       <c r="R3">
-        <v>1.002057211826143</v>
+        <v>1.000273411463125</v>
       </c>
       <c r="S3">
-        <v>1.002057211826143</v>
+        <v>1.000273411463125</v>
       </c>
       <c r="T3">
-        <v>1.000142372667252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.00010981399617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9929702518072635</v>
+        <v>1.031284936887958</v>
       </c>
       <c r="D4">
-        <v>1.042822578952436</v>
+        <v>1.036057228051348</v>
       </c>
       <c r="E4">
-        <v>0.9871891958171737</v>
+        <v>0.9286209471250341</v>
       </c>
       <c r="F4">
-        <v>0.9929702518072635</v>
+        <v>1.086956746934945</v>
       </c>
       <c r="G4">
-        <v>0.9647526604373322</v>
+        <v>0.8815319130920666</v>
       </c>
       <c r="H4">
-        <v>1.025010645769137</v>
+        <v>1.036057228051348</v>
       </c>
       <c r="I4">
-        <v>0.9888494306708471</v>
+        <v>1.029116909966006</v>
       </c>
       <c r="J4">
-        <v>1.042822578952436</v>
+        <v>0.8815319130920666</v>
       </c>
       <c r="K4">
-        <v>0.9929702518072635</v>
+        <v>1.036057228051348</v>
       </c>
       <c r="L4">
-        <v>0.9871891958171737</v>
+        <v>1.029116909966006</v>
       </c>
       <c r="M4">
-        <v>1.015005887384805</v>
+        <v>0.9553244115290365</v>
       </c>
       <c r="N4">
-        <v>1.015005887384805</v>
+        <v>0.9553244115290365</v>
       </c>
       <c r="O4">
-        <v>1.018340806846249</v>
+        <v>0.9464232567277023</v>
       </c>
       <c r="P4">
-        <v>1.007660675525624</v>
+        <v>0.9822353503698071</v>
       </c>
       <c r="Q4">
-        <v>1.007660675525624</v>
+        <v>0.9822353503698071</v>
       </c>
       <c r="R4">
-        <v>1.003988069596034</v>
+        <v>0.9956908197901924</v>
       </c>
       <c r="S4">
-        <v>1.003988069596034</v>
+        <v>0.9956908197901924</v>
       </c>
       <c r="T4">
-        <v>1.000265793909032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9989281136762265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9859990871812285</v>
+        <v>0.9384793596109493</v>
       </c>
       <c r="D5">
-        <v>1.08236872095078</v>
+        <v>0.9205077580547525</v>
       </c>
       <c r="E5">
-        <v>0.975612972919068</v>
+        <v>1.132832909221904</v>
       </c>
       <c r="F5">
-        <v>0.9859990871812285</v>
+        <v>0.861751239092218</v>
       </c>
       <c r="G5">
-        <v>0.9330363296757133</v>
+        <v>1.252006129869594</v>
       </c>
       <c r="H5">
-        <v>1.047952041834111</v>
+        <v>0.9205077580547525</v>
       </c>
       <c r="I5">
-        <v>0.9785929422579478</v>
+        <v>0.9459870119668574</v>
       </c>
       <c r="J5">
-        <v>1.08236872095078</v>
+        <v>1.252006129869594</v>
       </c>
       <c r="K5">
-        <v>0.9859990871812285</v>
+        <v>0.9205077580547525</v>
       </c>
       <c r="L5">
-        <v>0.975612972919068</v>
+        <v>0.9459870119668574</v>
       </c>
       <c r="M5">
-        <v>1.028990846934924</v>
+        <v>1.098996570918226</v>
       </c>
       <c r="N5">
-        <v>1.028990846934924</v>
+        <v>1.098996570918226</v>
       </c>
       <c r="O5">
-        <v>1.035311245234653</v>
+        <v>1.110275350352785</v>
       </c>
       <c r="P5">
-        <v>1.014660260350359</v>
+        <v>1.039500299963735</v>
       </c>
       <c r="Q5">
-        <v>1.014660260350359</v>
+        <v>1.039500299963735</v>
       </c>
       <c r="R5">
-        <v>1.007494967058076</v>
+        <v>1.009752164486489</v>
       </c>
       <c r="S5">
-        <v>1.007494967058076</v>
+        <v>1.009752164486489</v>
       </c>
       <c r="T5">
-        <v>1.000593682469808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.008594067969379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9792548225384606</v>
+        <v>0.7851116665671326</v>
       </c>
       <c r="D6">
-        <v>1.120752594527541</v>
+        <v>0.6942873737666481</v>
       </c>
       <c r="E6">
-        <v>0.9642387126278048</v>
+        <v>1.460869117273427</v>
       </c>
       <c r="F6">
-        <v>0.9792548225384606</v>
+        <v>0.55414037025527</v>
       </c>
       <c r="G6">
-        <v>0.9020503649698403</v>
+        <v>1.887313635701267</v>
       </c>
       <c r="H6">
-        <v>1.07038530783582</v>
+        <v>0.6942873737666481</v>
       </c>
       <c r="I6">
-        <v>0.968565131740464</v>
+        <v>0.8233301448383037</v>
       </c>
       <c r="J6">
-        <v>1.120752594527541</v>
+        <v>1.887313635701267</v>
       </c>
       <c r="K6">
-        <v>0.9792548225384606</v>
+        <v>0.6942873737666481</v>
       </c>
       <c r="L6">
-        <v>0.9642387126278048</v>
+        <v>0.8233301448383037</v>
       </c>
       <c r="M6">
-        <v>1.042495653577673</v>
+        <v>1.355321890269785</v>
       </c>
       <c r="N6">
-        <v>1.042495653577673</v>
+        <v>1.355321890269785</v>
       </c>
       <c r="O6">
-        <v>1.051792204997055</v>
+        <v>1.390504299270999</v>
       </c>
       <c r="P6">
-        <v>1.021415376564602</v>
+        <v>1.134977051435406</v>
       </c>
       <c r="Q6">
-        <v>1.021415376564602</v>
+        <v>1.134977051435406</v>
       </c>
       <c r="R6">
-        <v>1.010875238058067</v>
+        <v>1.024804632018217</v>
       </c>
       <c r="S6">
-        <v>1.010875238058067</v>
+        <v>1.024804632018217</v>
       </c>
       <c r="T6">
-        <v>1.000874489039988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.034175384733675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9995549299149149</v>
+        <v>0.9943103246909638</v>
       </c>
       <c r="D7">
-        <v>1.001600643192188</v>
+        <v>0.9974123504742233</v>
       </c>
       <c r="E7">
-        <v>0.9996334692160128</v>
+        <v>1.012893544370036</v>
       </c>
       <c r="F7">
-        <v>0.9995549299149149</v>
+        <v>0.9806877329680092</v>
       </c>
       <c r="G7">
-        <v>0.9990878394695408</v>
+        <v>1.021425508539001</v>
       </c>
       <c r="H7">
-        <v>1.000838095087441</v>
+        <v>0.9974123504742233</v>
       </c>
       <c r="I7">
-        <v>0.999608198636483</v>
+        <v>0.9930272858584688</v>
       </c>
       <c r="J7">
-        <v>1.001600643192188</v>
+        <v>1.021425508539001</v>
       </c>
       <c r="K7">
-        <v>0.9995549299149149</v>
+        <v>0.9974123504742233</v>
       </c>
       <c r="L7">
-        <v>0.9996334692160128</v>
+        <v>0.9930272858584688</v>
       </c>
       <c r="M7">
-        <v>1.0006170562041</v>
+        <v>1.007226397198735</v>
       </c>
       <c r="N7">
-        <v>1.0006170562041</v>
+        <v>1.007226397198735</v>
       </c>
       <c r="O7">
-        <v>1.000690735831881</v>
+        <v>1.009115446255835</v>
       </c>
       <c r="P7">
-        <v>1.000263014107705</v>
+        <v>1.003955048290564</v>
       </c>
       <c r="Q7">
-        <v>1.000263014107705</v>
+        <v>1.003955048290565</v>
       </c>
       <c r="R7">
-        <v>1.000085993059508</v>
+        <v>1.002319373836479</v>
       </c>
       <c r="S7">
-        <v>1.000085993059508</v>
+        <v>1.002319373836479</v>
       </c>
       <c r="T7">
-        <v>1.000053862586097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999594578167837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9992232173454887</v>
+        <v>0.9995183111830962</v>
       </c>
       <c r="D8">
-        <v>1.003562403928244</v>
+        <v>1.000085323919915</v>
       </c>
       <c r="E8">
-        <v>0.9990848072332763</v>
+        <v>1.001109901054921</v>
       </c>
       <c r="F8">
-        <v>0.9992232173454887</v>
+        <v>0.9979813208750302</v>
       </c>
       <c r="G8">
-        <v>0.9977986656535278</v>
+        <v>1.001686963109937</v>
       </c>
       <c r="H8">
-        <v>1.001873208570357</v>
+        <v>1.000085323919915</v>
       </c>
       <c r="I8">
-        <v>0.9991165812461255</v>
+        <v>0.9993156653731124</v>
       </c>
       <c r="J8">
-        <v>1.003562403928244</v>
+        <v>1.001686963109937</v>
       </c>
       <c r="K8">
-        <v>0.9992232173454887</v>
+        <v>1.000085323919915</v>
       </c>
       <c r="L8">
-        <v>0.9990848072332763</v>
+        <v>0.9993156653731124</v>
       </c>
       <c r="M8">
-        <v>1.00132360558076</v>
+        <v>1.000501314241524</v>
       </c>
       <c r="N8">
-        <v>1.00132360558076</v>
+        <v>1.000501314241524</v>
       </c>
       <c r="O8">
-        <v>1.001506806577293</v>
+        <v>1.000704176512657</v>
       </c>
       <c r="P8">
-        <v>1.000623476169003</v>
+        <v>1.000362650800988</v>
       </c>
       <c r="Q8">
-        <v>1.000623476169003</v>
+        <v>1.000362650800988</v>
       </c>
       <c r="R8">
-        <v>1.000273411463124</v>
+        <v>1.00029331908072</v>
       </c>
       <c r="S8">
-        <v>1.000273411463124</v>
+        <v>1.00029331908072</v>
       </c>
       <c r="T8">
-        <v>1.00010981399617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999495809193352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9994254548513407</v>
+        <v>0.9888494306708471</v>
       </c>
       <c r="D9">
-        <v>1.004560951366333</v>
+        <v>0.9929702518072635</v>
       </c>
       <c r="E9">
-        <v>0.9986320050152714</v>
+        <v>1.025010645769137</v>
       </c>
       <c r="F9">
-        <v>0.9994254548513407</v>
+        <v>0.9647526604373322</v>
       </c>
       <c r="G9">
-        <v>0.9966193262673354</v>
+        <v>1.042822578952436</v>
       </c>
       <c r="H9">
-        <v>1.002459345931466</v>
+        <v>0.9929702518072635</v>
       </c>
       <c r="I9">
-        <v>0.9988533252008215</v>
+        <v>0.9871891958171737</v>
       </c>
       <c r="J9">
-        <v>1.004560951366333</v>
+        <v>1.042822578952436</v>
       </c>
       <c r="K9">
-        <v>0.9994254548513407</v>
+        <v>0.9929702518072635</v>
       </c>
       <c r="L9">
-        <v>0.9986320050152714</v>
+        <v>0.9871891958171737</v>
       </c>
       <c r="M9">
-        <v>1.001596478190802</v>
+        <v>1.015005887384805</v>
       </c>
       <c r="N9">
-        <v>1.001596478190802</v>
+        <v>1.015005887384805</v>
       </c>
       <c r="O9">
-        <v>1.001884100771023</v>
+        <v>1.018340806846249</v>
       </c>
       <c r="P9">
-        <v>1.000872803744315</v>
+        <v>1.007660675525624</v>
       </c>
       <c r="Q9">
-        <v>1.000872803744315</v>
+        <v>1.007660675525624</v>
       </c>
       <c r="R9">
-        <v>1.000510966521071</v>
+        <v>1.003988069596034</v>
       </c>
       <c r="S9">
-        <v>1.000510966521071</v>
+        <v>1.003988069596034</v>
       </c>
       <c r="T9">
-        <v>1.000091734772095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000265793909032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9981066016226974</v>
+        <v>0.7818060520238268</v>
       </c>
       <c r="D10">
-        <v>1.010258792304054</v>
+        <v>0.6880833774725619</v>
       </c>
       <c r="E10">
-        <v>0.997200733652159</v>
+        <v>1.467800165623083</v>
       </c>
       <c r="F10">
-        <v>0.9981066016226974</v>
+        <v>0.5492427741520254</v>
       </c>
       <c r="G10">
-        <v>0.9930775382501944</v>
+        <v>1.901444139913594</v>
       </c>
       <c r="H10">
-        <v>1.005474656809969</v>
+        <v>0.6880833774725619</v>
       </c>
       <c r="I10">
-        <v>0.9974427761215315</v>
+        <v>0.8212339618971893</v>
       </c>
       <c r="J10">
-        <v>1.010258792304054</v>
+        <v>1.901444139913594</v>
       </c>
       <c r="K10">
-        <v>0.9981066016226974</v>
+        <v>0.6880833774725619</v>
       </c>
       <c r="L10">
-        <v>0.997200733652159</v>
+        <v>0.8212339618971893</v>
       </c>
       <c r="M10">
-        <v>1.003729762978107</v>
+        <v>1.361339050905392</v>
       </c>
       <c r="N10">
-        <v>1.003729762978107</v>
+        <v>1.361339050905392</v>
       </c>
       <c r="O10">
-        <v>1.004311394255394</v>
+        <v>1.396826089144622</v>
       </c>
       <c r="P10">
-        <v>1.001855375859637</v>
+        <v>1.136920493094449</v>
       </c>
       <c r="Q10">
-        <v>1.001855375859637</v>
+        <v>1.136920493094449</v>
       </c>
       <c r="R10">
-        <v>1.000918182300402</v>
+        <v>1.024711214188977</v>
       </c>
       <c r="S10">
-        <v>1.000918182300402</v>
+        <v>1.024711214188977</v>
       </c>
       <c r="T10">
-        <v>1.000260183126768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.034935078513713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9986290799255361</v>
+        <v>1.016181463081662</v>
       </c>
       <c r="D11">
-        <v>1.015713615238844</v>
+        <v>1.04244624826491</v>
       </c>
       <c r="E11">
-        <v>0.9949503053527794</v>
+        <v>0.9696672693054009</v>
       </c>
       <c r="F11">
-        <v>0.9986290799255361</v>
+        <v>0.9975496732932407</v>
       </c>
       <c r="G11">
-        <v>0.9877147197296462</v>
+        <v>0.929159761016499</v>
       </c>
       <c r="H11">
-        <v>1.008590008576468</v>
+        <v>1.04244624826491</v>
       </c>
       <c r="I11">
-        <v>0.995984625253471</v>
+        <v>1.005037799089998</v>
       </c>
       <c r="J11">
-        <v>1.015713615238844</v>
+        <v>0.929159761016499</v>
       </c>
       <c r="K11">
-        <v>0.9986290799255361</v>
+        <v>1.04244624826491</v>
       </c>
       <c r="L11">
-        <v>0.9949503053527794</v>
+        <v>1.005037799089998</v>
       </c>
       <c r="M11">
-        <v>1.005331960295812</v>
+        <v>0.9670987800532485</v>
       </c>
       <c r="N11">
-        <v>1.005331960295812</v>
+        <v>0.9670987800532485</v>
       </c>
       <c r="O11">
-        <v>1.006417976389364</v>
+        <v>0.9679549431372992</v>
       </c>
       <c r="P11">
-        <v>1.003097666839053</v>
+        <v>0.9922146027904689</v>
       </c>
       <c r="Q11">
-        <v>1.003097666839053</v>
+        <v>0.9922146027904689</v>
       </c>
       <c r="R11">
-        <v>1.001980520110674</v>
+        <v>1.004772514159079</v>
       </c>
       <c r="S11">
-        <v>1.001980520110674</v>
+        <v>1.004772514159079</v>
       </c>
       <c r="T11">
-        <v>1.000263725679458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9933403690086186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.191763859511074</v>
+        <v>0.9355559651368434</v>
       </c>
       <c r="D12">
-        <v>0.8157107643532153</v>
+        <v>0.9056006317473669</v>
       </c>
       <c r="E12">
-        <v>0.965889100680987</v>
+        <v>1.138007377600002</v>
       </c>
       <c r="F12">
-        <v>1.191763859511074</v>
+        <v>0.869715519442105</v>
       </c>
       <c r="G12">
-        <v>0.8681313135159158</v>
+        <v>1.267106846314738</v>
       </c>
       <c r="H12">
-        <v>0.9491394175470963</v>
+        <v>0.9056006317473669</v>
       </c>
       <c r="I12">
-        <v>1.031765287095218</v>
+        <v>0.9480380894842096</v>
       </c>
       <c r="J12">
-        <v>0.8157107643532153</v>
+        <v>1.267106846314738</v>
       </c>
       <c r="K12">
-        <v>1.191763859511074</v>
+        <v>0.9056006317473669</v>
       </c>
       <c r="L12">
-        <v>0.965889100680987</v>
+        <v>0.9480380894842096</v>
       </c>
       <c r="M12">
-        <v>0.8907999325171012</v>
+        <v>1.107572467899474</v>
       </c>
       <c r="N12">
-        <v>0.8907999325171012</v>
+        <v>1.107572467899474</v>
       </c>
       <c r="O12">
-        <v>0.9102464275270995</v>
+        <v>1.11771743779965</v>
       </c>
       <c r="P12">
-        <v>0.9911212415150921</v>
+        <v>1.040248522515438</v>
       </c>
       <c r="Q12">
-        <v>0.9911212415150921</v>
+        <v>1.040248522515438</v>
       </c>
       <c r="R12">
-        <v>1.041281896014087</v>
+        <v>1.00658654982342</v>
       </c>
       <c r="S12">
-        <v>1.041281896014087</v>
+        <v>1.00658654982342</v>
       </c>
       <c r="T12">
-        <v>0.9703999571172509</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.010670738287544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9323921068624815</v>
+        <v>1.041706054046306</v>
       </c>
       <c r="D13">
-        <v>1.020774004069899</v>
+        <v>1.04399367958054</v>
       </c>
       <c r="E13">
-        <v>1.028459455958266</v>
+        <v>0.9087040695674811</v>
       </c>
       <c r="F13">
-        <v>0.9323921068624815</v>
+        <v>1.107505137705624</v>
       </c>
       <c r="G13">
-        <v>1.092053969813211</v>
+        <v>0.8322170746810791</v>
       </c>
       <c r="H13">
-        <v>0.991412437542354</v>
+        <v>1.04399367958054</v>
       </c>
       <c r="I13">
-        <v>1.00044227108493</v>
+        <v>1.040706968988382</v>
       </c>
       <c r="J13">
-        <v>1.020774004069899</v>
+        <v>0.8322170746810791</v>
       </c>
       <c r="K13">
-        <v>0.9323921068624815</v>
+        <v>1.04399367958054</v>
       </c>
       <c r="L13">
-        <v>1.028459455958266</v>
+        <v>1.040706968988382</v>
       </c>
       <c r="M13">
-        <v>1.024616730014083</v>
+        <v>0.9364620218347304</v>
       </c>
       <c r="N13">
-        <v>1.024616730014083</v>
+        <v>0.9364620218347304</v>
       </c>
       <c r="O13">
-        <v>1.013548632523506</v>
+        <v>0.9272093710789807</v>
       </c>
       <c r="P13">
-        <v>0.993875188963549</v>
+        <v>0.9723059077500004</v>
       </c>
       <c r="Q13">
-        <v>0.993875188963549</v>
+        <v>0.9723059077500004</v>
       </c>
       <c r="R13">
-        <v>0.9785044184382822</v>
+        <v>0.9902278507076354</v>
       </c>
       <c r="S13">
-        <v>0.9785044184382822</v>
+        <v>0.9902278507076354</v>
       </c>
       <c r="T13">
-        <v>1.010922374221857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9958054974282353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.787771418577992</v>
+        <v>0.6226717199999997</v>
       </c>
       <c r="D14">
-        <v>1.021884075968069</v>
+        <v>0.4573315399999993</v>
       </c>
       <c r="E14">
-        <v>1.107077319400852</v>
+        <v>1.808400599999999</v>
       </c>
       <c r="F14">
-        <v>0.787771418577992</v>
+        <v>0.2256521399999998</v>
       </c>
       <c r="G14">
-        <v>1.35162782427869</v>
+        <v>2.559413900000002</v>
       </c>
       <c r="H14">
-        <v>0.9404216355940348</v>
+        <v>0.4573315399999993</v>
       </c>
       <c r="I14">
-        <v>1.014347206604026</v>
+        <v>0.6923155599999995</v>
       </c>
       <c r="J14">
-        <v>1.021884075968069</v>
+        <v>2.559413900000002</v>
       </c>
       <c r="K14">
-        <v>0.787771418577992</v>
+        <v>0.4573315399999993</v>
       </c>
       <c r="L14">
-        <v>1.107077319400852</v>
+        <v>0.6923155599999995</v>
       </c>
       <c r="M14">
-        <v>1.064480697684461</v>
+        <v>1.625864730000001</v>
       </c>
       <c r="N14">
-        <v>1.064480697684461</v>
+        <v>1.625864730000001</v>
       </c>
       <c r="O14">
-        <v>1.023127676987652</v>
+        <v>1.68671002</v>
       </c>
       <c r="P14">
-        <v>0.9722442713156378</v>
+        <v>1.236353666666667</v>
       </c>
       <c r="Q14">
-        <v>0.9722442713156378</v>
+        <v>1.236353666666667</v>
       </c>
       <c r="R14">
-        <v>0.9261260581312264</v>
+        <v>1.041598135</v>
       </c>
       <c r="S14">
-        <v>0.9261260581312264</v>
+        <v>1.041598135</v>
       </c>
       <c r="T14">
-        <v>1.037188246737277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.060964243333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.108546735160906</v>
+        <v>1.1585466</v>
       </c>
       <c r="D15">
-        <v>0.9136383475102809</v>
+        <v>1.9813918</v>
       </c>
       <c r="E15">
-        <v>0.9796214158284349</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="F15">
-        <v>1.108546735160906</v>
+        <v>0.66920919</v>
       </c>
       <c r="G15">
-        <v>0.9040444492177051</v>
+        <v>0.21885897</v>
       </c>
       <c r="H15">
-        <v>0.9757852064686257</v>
+        <v>1.9813918</v>
       </c>
       <c r="I15">
-        <v>1.01709717973906</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="J15">
-        <v>0.9136383475102809</v>
+        <v>0.21885897</v>
       </c>
       <c r="K15">
-        <v>1.108546735160906</v>
+        <v>1.9813918</v>
       </c>
       <c r="L15">
-        <v>0.9796214158284349</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M15">
-        <v>0.9466298816693579</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N15">
-        <v>0.9466298816693579</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O15">
-        <v>0.9563483232691139</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P15">
-        <v>1.000602166166541</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q15">
-        <v>1.000602166166541</v>
+        <v>1.00974314</v>
       </c>
       <c r="R15">
-        <v>1.027588308415132</v>
+        <v>1.252655305</v>
       </c>
       <c r="S15">
-        <v>1.027588308415132</v>
+        <v>1.252655305</v>
       </c>
       <c r="T15">
-        <v>0.9831222223208352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9170682983333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9993594012252653</v>
+        <v>1.2322269</v>
       </c>
       <c r="D16">
-        <v>1.000486892787028</v>
+        <v>1.3496998</v>
       </c>
       <c r="E16">
-        <v>1.000158694792475</v>
+        <v>0.46961907</v>
       </c>
       <c r="F16">
-        <v>0.9993594012252653</v>
+        <v>1.5602005</v>
       </c>
       <c r="G16">
-        <v>1.000612944952434</v>
+        <v>0.15298654</v>
       </c>
       <c r="H16">
-        <v>1.000078334018128</v>
+        <v>1.3496998</v>
       </c>
       <c r="I16">
-        <v>0.9999328821295179</v>
+        <v>1.1769958</v>
       </c>
       <c r="J16">
-        <v>1.000486892787028</v>
+        <v>0.15298654</v>
       </c>
       <c r="K16">
-        <v>0.9993594012252653</v>
+        <v>1.3496998</v>
       </c>
       <c r="L16">
-        <v>1.000158694792475</v>
+        <v>1.1769958</v>
       </c>
       <c r="M16">
-        <v>1.000322793789751</v>
+        <v>0.66499117</v>
       </c>
       <c r="N16">
-        <v>1.000322793789751</v>
+        <v>0.66499117</v>
       </c>
       <c r="O16">
-        <v>1.00024130719921</v>
+        <v>0.5998671366666667</v>
       </c>
       <c r="P16">
-        <v>1.000001662934923</v>
+        <v>0.8932273799999999</v>
       </c>
       <c r="Q16">
-        <v>1.000001662934923</v>
+        <v>0.8932273799999999</v>
       </c>
       <c r="R16">
-        <v>0.9998410975075085</v>
+        <v>1.007345485</v>
       </c>
       <c r="S16">
-        <v>0.9998410975075085</v>
+        <v>1.007345485</v>
       </c>
       <c r="T16">
-        <v>1.000104858317475</v>
+        <v>0.9902881016666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000085323919915</v>
+        <v>1.2404767</v>
       </c>
       <c r="D17">
-        <v>1.001686963109937</v>
+        <v>1.1079542</v>
       </c>
       <c r="E17">
-        <v>0.9993156653731124</v>
+        <v>0.42492337</v>
       </c>
       <c r="F17">
-        <v>1.000085323919915</v>
+        <v>1.9250803</v>
       </c>
       <c r="G17">
-        <v>0.9979813208750302</v>
+        <v>0.14937888</v>
       </c>
       <c r="H17">
-        <v>1.001109901054921</v>
+        <v>1.1079542</v>
       </c>
       <c r="I17">
-        <v>0.9995183111830962</v>
+        <v>1.2932411</v>
       </c>
       <c r="J17">
-        <v>1.001686963109937</v>
+        <v>0.14937888</v>
       </c>
       <c r="K17">
-        <v>1.000085323919915</v>
+        <v>1.1079542</v>
       </c>
       <c r="L17">
-        <v>0.9993156653731124</v>
+        <v>1.2932411</v>
       </c>
       <c r="M17">
-        <v>1.000501314241524</v>
+        <v>0.72130999</v>
       </c>
       <c r="N17">
-        <v>1.000501314241524</v>
+        <v>0.72130999</v>
       </c>
       <c r="O17">
-        <v>1.000704176512657</v>
+        <v>0.6225144499999999</v>
       </c>
       <c r="P17">
-        <v>1.000362650800988</v>
+        <v>0.8501913933333333</v>
       </c>
       <c r="Q17">
-        <v>1.000362650800988</v>
+        <v>0.8501913933333333</v>
       </c>
       <c r="R17">
-        <v>1.00029331908072</v>
+        <v>0.914632095</v>
       </c>
       <c r="S17">
-        <v>1.00029331908072</v>
+        <v>0.914632095</v>
       </c>
       <c r="T17">
-        <v>0.9999495809193352</v>
+        <v>1.023509091666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9974094571655546</v>
+        <v>0.8710093052054793</v>
       </c>
       <c r="D18">
-        <v>1.007713556484617</v>
+        <v>0.9344397583561641</v>
       </c>
       <c r="E18">
-        <v>0.9983730905559248</v>
+        <v>1.289881642739726</v>
       </c>
       <c r="F18">
-        <v>0.9974094571655546</v>
+        <v>0.5754388001369865</v>
       </c>
       <c r="G18">
-        <v>0.9960149329193757</v>
+        <v>1.492148408630137</v>
       </c>
       <c r="H18">
-        <v>1.004061505602579</v>
+        <v>0.9344397583561641</v>
       </c>
       <c r="I18">
-        <v>0.9981111612459772</v>
+        <v>0.8453867987671233</v>
       </c>
       <c r="J18">
-        <v>1.007713556484617</v>
+        <v>1.492148408630137</v>
       </c>
       <c r="K18">
-        <v>0.9974094571655546</v>
+        <v>0.9344397583561641</v>
       </c>
       <c r="L18">
-        <v>0.9983730905559248</v>
+        <v>0.8453867987671233</v>
       </c>
       <c r="M18">
-        <v>1.003043323520271</v>
+        <v>1.16876760369863</v>
       </c>
       <c r="N18">
-        <v>1.003043323520271</v>
+        <v>1.16876760369863</v>
       </c>
       <c r="O18">
-        <v>1.003382717547707</v>
+        <v>1.209138950045662</v>
       </c>
       <c r="P18">
-        <v>1.001165368068699</v>
+        <v>1.090658321917808</v>
       </c>
       <c r="Q18">
-        <v>1.001165368068699</v>
+        <v>1.090658321917808</v>
       </c>
       <c r="R18">
-        <v>1.000226390342913</v>
+        <v>1.051603681027397</v>
       </c>
       <c r="S18">
-        <v>1.000226390342913</v>
+        <v>1.051603681027397</v>
       </c>
       <c r="T18">
-        <v>1.000280617329005</v>
+        <v>1.001384118972602</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9923761996644128</v>
+        <v>1.024516017894737</v>
       </c>
       <c r="D19">
-        <v>1.019222555319453</v>
+        <v>0.868363914736842</v>
       </c>
       <c r="E19">
-        <v>0.9966216042395454</v>
+        <v>0.8989434447368422</v>
       </c>
       <c r="F19">
-        <v>0.9923761996644128</v>
+        <v>1.374547666842105</v>
       </c>
       <c r="G19">
-        <v>0.992201766724177</v>
+        <v>1.005394897894737</v>
       </c>
       <c r="H19">
-        <v>1.009568357521425</v>
+        <v>0.868363914736842</v>
       </c>
       <c r="I19">
-        <v>0.9955192131159265</v>
+        <v>1.09057145</v>
       </c>
       <c r="J19">
-        <v>1.019222555319453</v>
+        <v>1.005394897894737</v>
       </c>
       <c r="K19">
-        <v>0.9923761996644128</v>
+        <v>0.868363914736842</v>
       </c>
       <c r="L19">
-        <v>0.9966216042395454</v>
+        <v>1.09057145</v>
       </c>
       <c r="M19">
-        <v>1.007922079779499</v>
+        <v>1.047983173947368</v>
       </c>
       <c r="N19">
-        <v>1.007922079779499</v>
+        <v>1.047983173947368</v>
       </c>
       <c r="O19">
-        <v>1.008470839026808</v>
+        <v>0.9983032642105263</v>
       </c>
       <c r="P19">
-        <v>1.002740119741137</v>
+        <v>0.9881100875438596</v>
       </c>
       <c r="Q19">
-        <v>1.002740119741137</v>
+        <v>0.9881100875438596</v>
       </c>
       <c r="R19">
-        <v>1.000149139721956</v>
+        <v>0.9581735443421053</v>
       </c>
       <c r="S19">
-        <v>1.000149139721956</v>
+        <v>0.9581735443421053</v>
       </c>
       <c r="T19">
-        <v>1.000918282764157</v>
+        <v>1.04372289868421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.070513331578948</v>
+      </c>
+      <c r="D20">
+        <v>1.091711147368421</v>
+      </c>
+      <c r="E20">
+        <v>0.8313715421052631</v>
+      </c>
+      <c r="F20">
+        <v>1.223202735789474</v>
+      </c>
+      <c r="G20">
+        <v>0.7253494259473686</v>
+      </c>
+      <c r="H20">
+        <v>1.091711147368421</v>
+      </c>
+      <c r="I20">
+        <v>1.060598181578947</v>
+      </c>
+      <c r="J20">
+        <v>0.7253494259473686</v>
+      </c>
+      <c r="K20">
+        <v>1.091711147368421</v>
+      </c>
+      <c r="L20">
+        <v>1.060598181578947</v>
+      </c>
+      <c r="M20">
+        <v>0.892973803763158</v>
+      </c>
+      <c r="N20">
+        <v>0.892973803763158</v>
+      </c>
+      <c r="O20">
+        <v>0.8724397165438598</v>
+      </c>
+      <c r="P20">
+        <v>0.9592195849649124</v>
+      </c>
+      <c r="Q20">
+        <v>0.9592195849649124</v>
+      </c>
+      <c r="R20">
+        <v>0.9923424755657895</v>
+      </c>
+      <c r="S20">
+        <v>0.9923424755657895</v>
+      </c>
+      <c r="T20">
+        <v>1.000457727394737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.014347206604026</v>
+      </c>
+      <c r="D21">
+        <v>0.787771418577992</v>
+      </c>
+      <c r="E21">
+        <v>0.9404216355940348</v>
+      </c>
+      <c r="F21">
+        <v>1.35162782427869</v>
+      </c>
+      <c r="G21">
+        <v>1.021884075968069</v>
+      </c>
+      <c r="H21">
+        <v>0.787771418577992</v>
+      </c>
+      <c r="I21">
+        <v>1.107077319400852</v>
+      </c>
+      <c r="J21">
+        <v>1.021884075968069</v>
+      </c>
+      <c r="K21">
+        <v>0.787771418577992</v>
+      </c>
+      <c r="L21">
+        <v>1.107077319400852</v>
+      </c>
+      <c r="M21">
+        <v>1.064480697684461</v>
+      </c>
+      <c r="N21">
+        <v>1.064480697684461</v>
+      </c>
+      <c r="O21">
+        <v>1.023127676987652</v>
+      </c>
+      <c r="P21">
+        <v>0.9722442713156377</v>
+      </c>
+      <c r="Q21">
+        <v>0.9722442713156377</v>
+      </c>
+      <c r="R21">
+        <v>0.9261260581312263</v>
+      </c>
+      <c r="S21">
+        <v>0.9261260581312263</v>
+      </c>
+      <c r="T21">
+        <v>1.037188246737277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.01709717973906</v>
+      </c>
+      <c r="D22">
+        <v>1.108546735160906</v>
+      </c>
+      <c r="E22">
+        <v>0.9757852064686257</v>
+      </c>
+      <c r="F22">
+        <v>0.9040444492177049</v>
+      </c>
+      <c r="G22">
+        <v>0.9136383475102811</v>
+      </c>
+      <c r="H22">
+        <v>1.108546735160906</v>
+      </c>
+      <c r="I22">
+        <v>0.9796214158284349</v>
+      </c>
+      <c r="J22">
+        <v>0.9136383475102811</v>
+      </c>
+      <c r="K22">
+        <v>1.108546735160906</v>
+      </c>
+      <c r="L22">
+        <v>0.9796214158284349</v>
+      </c>
+      <c r="M22">
+        <v>0.9466298816693579</v>
+      </c>
+      <c r="N22">
+        <v>0.9466298816693579</v>
+      </c>
+      <c r="O22">
+        <v>0.9563483232691139</v>
+      </c>
+      <c r="P22">
+        <v>1.000602166166541</v>
+      </c>
+      <c r="Q22">
+        <v>1.000602166166541</v>
+      </c>
+      <c r="R22">
+        <v>1.027588308415132</v>
+      </c>
+      <c r="S22">
+        <v>1.027588308415132</v>
+      </c>
+      <c r="T22">
+        <v>0.9831222223208352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.031765287095218</v>
+      </c>
+      <c r="D23">
+        <v>1.191763859511074</v>
+      </c>
+      <c r="E23">
+        <v>0.9491394175470963</v>
+      </c>
+      <c r="F23">
+        <v>0.8681313135159158</v>
+      </c>
+      <c r="G23">
+        <v>0.8157107643532153</v>
+      </c>
+      <c r="H23">
+        <v>1.191763859511074</v>
+      </c>
+      <c r="I23">
+        <v>0.9658891006809871</v>
+      </c>
+      <c r="J23">
+        <v>0.8157107643532153</v>
+      </c>
+      <c r="K23">
+        <v>1.191763859511074</v>
+      </c>
+      <c r="L23">
+        <v>0.9658891006809871</v>
+      </c>
+      <c r="M23">
+        <v>0.8907999325171012</v>
+      </c>
+      <c r="N23">
+        <v>0.8907999325171012</v>
+      </c>
+      <c r="O23">
+        <v>0.9102464275270995</v>
+      </c>
+      <c r="P23">
+        <v>0.9911212415150921</v>
+      </c>
+      <c r="Q23">
+        <v>0.9911212415150921</v>
+      </c>
+      <c r="R23">
+        <v>1.041281896014087</v>
+      </c>
+      <c r="S23">
+        <v>1.041281896014087</v>
+      </c>
+      <c r="T23">
+        <v>0.9703999571172509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.00044227108493</v>
+      </c>
+      <c r="D24">
+        <v>0.9323921068624815</v>
+      </c>
+      <c r="E24">
+        <v>0.9914124375423538</v>
+      </c>
+      <c r="F24">
+        <v>1.092053969813212</v>
+      </c>
+      <c r="G24">
+        <v>1.020774004069899</v>
+      </c>
+      <c r="H24">
+        <v>0.9323921068624815</v>
+      </c>
+      <c r="I24">
+        <v>1.028459455958266</v>
+      </c>
+      <c r="J24">
+        <v>1.020774004069899</v>
+      </c>
+      <c r="K24">
+        <v>0.9323921068624815</v>
+      </c>
+      <c r="L24">
+        <v>1.028459455958266</v>
+      </c>
+      <c r="M24">
+        <v>1.024616730014083</v>
+      </c>
+      <c r="N24">
+        <v>1.024616730014083</v>
+      </c>
+      <c r="O24">
+        <v>1.013548632523506</v>
+      </c>
+      <c r="P24">
+        <v>0.993875188963549</v>
+      </c>
+      <c r="Q24">
+        <v>0.993875188963549</v>
+      </c>
+      <c r="R24">
+        <v>0.9785044184382822</v>
+      </c>
+      <c r="S24">
+        <v>0.9785044184382822</v>
+      </c>
+      <c r="T24">
+        <v>1.010922374221857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.123969491982447</v>
+      </c>
+      <c r="D25">
+        <v>1.187008226709116</v>
+      </c>
+      <c r="E25">
+        <v>0.7353128591372831</v>
+      </c>
+      <c r="F25">
+        <v>1.240852921737708</v>
+      </c>
+      <c r="G25">
+        <v>0.4841844833459983</v>
+      </c>
+      <c r="H25">
+        <v>1.187008226709116</v>
+      </c>
+      <c r="I25">
+        <v>1.098472123593661</v>
+      </c>
+      <c r="J25">
+        <v>0.4841844833459983</v>
+      </c>
+      <c r="K25">
+        <v>1.187008226709116</v>
+      </c>
+      <c r="L25">
+        <v>1.098472123593661</v>
+      </c>
+      <c r="M25">
+        <v>0.7913283034698299</v>
+      </c>
+      <c r="N25">
+        <v>0.7913283034698299</v>
+      </c>
+      <c r="O25">
+        <v>0.7726564886923143</v>
+      </c>
+      <c r="P25">
+        <v>0.9232216112162588</v>
+      </c>
+      <c r="Q25">
+        <v>0.9232216112162588</v>
+      </c>
+      <c r="R25">
+        <v>0.9891682650894732</v>
+      </c>
+      <c r="S25">
+        <v>0.9891682650894732</v>
+      </c>
+      <c r="T25">
+        <v>0.9783000177510357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.027287563145395</v>
+      </c>
+      <c r="D26">
+        <v>1.003231871166142</v>
+      </c>
+      <c r="E26">
+        <v>0.9351931995740717</v>
+      </c>
+      <c r="F26">
+        <v>1.118815046577339</v>
+      </c>
+      <c r="G26">
+        <v>0.8880443702687092</v>
+      </c>
+      <c r="H26">
+        <v>1.003231871166142</v>
+      </c>
+      <c r="I26">
+        <v>1.037061752629105</v>
+      </c>
+      <c r="J26">
+        <v>0.8880443702687092</v>
+      </c>
+      <c r="K26">
+        <v>1.003231871166142</v>
+      </c>
+      <c r="L26">
+        <v>1.037061752629105</v>
+      </c>
+      <c r="M26">
+        <v>0.9625530614489071</v>
+      </c>
+      <c r="N26">
+        <v>0.9625530614489071</v>
+      </c>
+      <c r="O26">
+        <v>0.9534331074906287</v>
+      </c>
+      <c r="P26">
+        <v>0.9761126646879852</v>
+      </c>
+      <c r="Q26">
+        <v>0.9761126646879852</v>
+      </c>
+      <c r="R26">
+        <v>0.9828924663075242</v>
+      </c>
+      <c r="S26">
+        <v>0.9828924663075242</v>
+      </c>
+      <c r="T26">
+        <v>1.00160563389346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9713854731325707</v>
+      </c>
+      <c r="D27">
+        <v>1.010645756512691</v>
+      </c>
+      <c r="E27">
+        <v>1.044451425875053</v>
+      </c>
+      <c r="F27">
+        <v>0.9555318419030793</v>
+      </c>
+      <c r="G27">
+        <v>1.131039080618272</v>
+      </c>
+      <c r="H27">
+        <v>1.010645756512691</v>
+      </c>
+      <c r="I27">
+        <v>0.9555278272599553</v>
+      </c>
+      <c r="J27">
+        <v>1.131039080618272</v>
+      </c>
+      <c r="K27">
+        <v>1.010645756512691</v>
+      </c>
+      <c r="L27">
+        <v>0.9555278272599553</v>
+      </c>
+      <c r="M27">
+        <v>1.043283453939113</v>
+      </c>
+      <c r="N27">
+        <v>1.043283453939113</v>
+      </c>
+      <c r="O27">
+        <v>1.04367277791776</v>
+      </c>
+      <c r="P27">
+        <v>1.032404221463639</v>
+      </c>
+      <c r="Q27">
+        <v>1.032404221463639</v>
+      </c>
+      <c r="R27">
+        <v>1.026964605225902</v>
+      </c>
+      <c r="S27">
+        <v>1.026964605225902</v>
+      </c>
+      <c r="T27">
+        <v>1.011430234216937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.024267963009406</v>
+      </c>
+      <c r="D28">
+        <v>0.9980140498634176</v>
+      </c>
+      <c r="E28">
+        <v>0.9456622518293256</v>
+      </c>
+      <c r="F28">
+        <v>1.093098302457363</v>
+      </c>
+      <c r="G28">
+        <v>0.9144540440804629</v>
+      </c>
+      <c r="H28">
+        <v>0.9980140498634176</v>
+      </c>
+      <c r="I28">
+        <v>1.033449497472379</v>
+      </c>
+      <c r="J28">
+        <v>0.9144540440804629</v>
+      </c>
+      <c r="K28">
+        <v>0.9980140498634176</v>
+      </c>
+      <c r="L28">
+        <v>1.033449497472379</v>
+      </c>
+      <c r="M28">
+        <v>0.9739517707764211</v>
+      </c>
+      <c r="N28">
+        <v>0.9739517707764211</v>
+      </c>
+      <c r="O28">
+        <v>0.9645219311273893</v>
+      </c>
+      <c r="P28">
+        <v>0.9819725304720865</v>
+      </c>
+      <c r="Q28">
+        <v>0.9819725304720865</v>
+      </c>
+      <c r="R28">
+        <v>0.9859829103199194</v>
+      </c>
+      <c r="S28">
+        <v>0.9859829103199194</v>
+      </c>
+      <c r="T28">
+        <v>1.001491018118726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.093364228552632</v>
+      </c>
+      <c r="D29">
+        <v>1.080272787248889</v>
+      </c>
+      <c r="E29">
+        <v>0.8009561183891329</v>
+      </c>
+      <c r="F29">
+        <v>1.238565946938871</v>
+      </c>
+      <c r="G29">
+        <v>0.631722092862824</v>
+      </c>
+      <c r="H29">
+        <v>1.080272787248889</v>
+      </c>
+      <c r="I29">
+        <v>1.095539147948636</v>
+      </c>
+      <c r="J29">
+        <v>0.631722092862824</v>
+      </c>
+      <c r="K29">
+        <v>1.080272787248889</v>
+      </c>
+      <c r="L29">
+        <v>1.095539147948636</v>
+      </c>
+      <c r="M29">
+        <v>0.8636306204057299</v>
+      </c>
+      <c r="N29">
+        <v>0.8636306204057299</v>
+      </c>
+      <c r="O29">
+        <v>0.8427391197335309</v>
+      </c>
+      <c r="P29">
+        <v>0.9358446760201163</v>
+      </c>
+      <c r="Q29">
+        <v>0.9358446760201163</v>
+      </c>
+      <c r="R29">
+        <v>0.9719517038273096</v>
+      </c>
+      <c r="S29">
+        <v>0.9719517038273096</v>
+      </c>
+      <c r="T29">
+        <v>0.9900700536568309</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.031284936887958</v>
+        <v>0.9455870434453302</v>
       </c>
       <c r="D4">
-        <v>1.036057228051348</v>
+        <v>0.9259054374446701</v>
       </c>
       <c r="E4">
-        <v>0.9286209471250341</v>
+        <v>1.11752398176255</v>
       </c>
       <c r="F4">
-        <v>1.086956746934945</v>
+        <v>0.8809408136266945</v>
       </c>
       <c r="G4">
-        <v>0.8815319130920666</v>
+        <v>1.224048710175232</v>
       </c>
       <c r="H4">
-        <v>1.036057228051348</v>
+        <v>0.9259054374446701</v>
       </c>
       <c r="I4">
-        <v>1.029116909966006</v>
+        <v>0.9537535868607189</v>
       </c>
       <c r="J4">
-        <v>0.8815319130920666</v>
+        <v>1.224048710175232</v>
       </c>
       <c r="K4">
-        <v>1.036057228051348</v>
+        <v>0.9259054374446701</v>
       </c>
       <c r="L4">
-        <v>1.029116909966006</v>
+        <v>0.9537535868607189</v>
       </c>
       <c r="M4">
-        <v>0.9553244115290365</v>
+        <v>1.088901148517976</v>
       </c>
       <c r="N4">
-        <v>0.9553244115290365</v>
+        <v>1.088901148517976</v>
       </c>
       <c r="O4">
-        <v>0.9464232567277023</v>
+        <v>1.098442092932834</v>
       </c>
       <c r="P4">
-        <v>0.9822353503698071</v>
+        <v>1.034569244826874</v>
       </c>
       <c r="Q4">
-        <v>0.9822353503698071</v>
+        <v>1.034569244826874</v>
       </c>
       <c r="R4">
-        <v>0.9956908197901924</v>
+        <v>1.007403292981323</v>
       </c>
       <c r="S4">
-        <v>0.9956908197901924</v>
+        <v>1.007403292981323</v>
       </c>
       <c r="T4">
-        <v>0.9989281136762265</v>
+        <v>1.007959928885866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9384793596109493</v>
+        <v>1.104084103176118</v>
       </c>
       <c r="D5">
-        <v>0.9205077580547525</v>
+        <v>1.119535777142581</v>
       </c>
       <c r="E5">
-        <v>1.132832909221904</v>
+        <v>0.7577003905768592</v>
       </c>
       <c r="F5">
-        <v>0.861751239092218</v>
+        <v>1.317950710269136</v>
       </c>
       <c r="G5">
-        <v>1.252006129869594</v>
+        <v>0.5926340241291361</v>
       </c>
       <c r="H5">
-        <v>0.9205077580547525</v>
+        <v>1.119535777142581</v>
       </c>
       <c r="I5">
-        <v>0.9459870119668574</v>
+        <v>1.096097942123474</v>
       </c>
       <c r="J5">
-        <v>1.252006129869594</v>
+        <v>0.5926340241291361</v>
       </c>
       <c r="K5">
-        <v>0.9205077580547525</v>
+        <v>1.119535777142581</v>
       </c>
       <c r="L5">
-        <v>0.9459870119668574</v>
+        <v>1.096097942123474</v>
       </c>
       <c r="M5">
-        <v>1.098996570918226</v>
+        <v>0.844365983126305</v>
       </c>
       <c r="N5">
-        <v>1.098996570918226</v>
+        <v>0.844365983126305</v>
       </c>
       <c r="O5">
-        <v>1.110275350352785</v>
+        <v>0.8154774522764897</v>
       </c>
       <c r="P5">
-        <v>1.039500299963735</v>
+        <v>0.9360892477983969</v>
       </c>
       <c r="Q5">
-        <v>1.039500299963735</v>
+        <v>0.9360892477983969</v>
       </c>
       <c r="R5">
-        <v>1.009752164486489</v>
+        <v>0.9819508801344429</v>
       </c>
       <c r="S5">
-        <v>1.009752164486489</v>
+        <v>0.9819508801344429</v>
       </c>
       <c r="T5">
-        <v>1.008594067969379</v>
+        <v>0.9980004912362174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.7851116665671326</v>
+        <v>1.031284936887958</v>
       </c>
       <c r="D6">
-        <v>0.6942873737666481</v>
+        <v>1.036057228051348</v>
       </c>
       <c r="E6">
-        <v>1.460869117273427</v>
+        <v>0.9286209471250341</v>
       </c>
       <c r="F6">
-        <v>0.55414037025527</v>
+        <v>1.086956746934945</v>
       </c>
       <c r="G6">
-        <v>1.887313635701267</v>
+        <v>0.8815319130920666</v>
       </c>
       <c r="H6">
-        <v>0.6942873737666481</v>
+        <v>1.036057228051348</v>
       </c>
       <c r="I6">
-        <v>0.8233301448383037</v>
+        <v>1.029116909966006</v>
       </c>
       <c r="J6">
-        <v>1.887313635701267</v>
+        <v>0.8815319130920666</v>
       </c>
       <c r="K6">
-        <v>0.6942873737666481</v>
+        <v>1.036057228051348</v>
       </c>
       <c r="L6">
-        <v>0.8233301448383037</v>
+        <v>1.029116909966006</v>
       </c>
       <c r="M6">
-        <v>1.355321890269785</v>
+        <v>0.9553244115290365</v>
       </c>
       <c r="N6">
-        <v>1.355321890269785</v>
+        <v>0.9553244115290365</v>
       </c>
       <c r="O6">
-        <v>1.390504299270999</v>
+        <v>0.9464232567277023</v>
       </c>
       <c r="P6">
-        <v>1.134977051435406</v>
+        <v>0.9822353503698071</v>
       </c>
       <c r="Q6">
-        <v>1.134977051435406</v>
+        <v>0.9822353503698071</v>
       </c>
       <c r="R6">
-        <v>1.024804632018217</v>
+        <v>0.9956908197901924</v>
       </c>
       <c r="S6">
-        <v>1.024804632018217</v>
+        <v>0.9956908197901924</v>
       </c>
       <c r="T6">
-        <v>1.034175384733675</v>
+        <v>0.9989281136762265</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9943103246909638</v>
+        <v>0.9384793596109493</v>
       </c>
       <c r="D7">
-        <v>0.9974123504742233</v>
+        <v>0.9205077580547525</v>
       </c>
       <c r="E7">
-        <v>1.012893544370036</v>
+        <v>1.132832909221904</v>
       </c>
       <c r="F7">
-        <v>0.9806877329680092</v>
+        <v>0.861751239092218</v>
       </c>
       <c r="G7">
-        <v>1.021425508539001</v>
+        <v>1.252006129869594</v>
       </c>
       <c r="H7">
-        <v>0.9974123504742233</v>
+        <v>0.9205077580547525</v>
       </c>
       <c r="I7">
-        <v>0.9930272858584688</v>
+        <v>0.9459870119668574</v>
       </c>
       <c r="J7">
-        <v>1.021425508539001</v>
+        <v>1.252006129869594</v>
       </c>
       <c r="K7">
-        <v>0.9974123504742233</v>
+        <v>0.9205077580547525</v>
       </c>
       <c r="L7">
-        <v>0.9930272858584688</v>
+        <v>0.9459870119668574</v>
       </c>
       <c r="M7">
-        <v>1.007226397198735</v>
+        <v>1.098996570918226</v>
       </c>
       <c r="N7">
-        <v>1.007226397198735</v>
+        <v>1.098996570918226</v>
       </c>
       <c r="O7">
-        <v>1.009115446255835</v>
+        <v>1.110275350352785</v>
       </c>
       <c r="P7">
-        <v>1.003955048290564</v>
+        <v>1.039500299963735</v>
       </c>
       <c r="Q7">
-        <v>1.003955048290565</v>
+        <v>1.039500299963735</v>
       </c>
       <c r="R7">
-        <v>1.002319373836479</v>
+        <v>1.009752164486489</v>
       </c>
       <c r="S7">
-        <v>1.002319373836479</v>
+        <v>1.009752164486489</v>
       </c>
       <c r="T7">
-        <v>0.9999594578167837</v>
+        <v>1.008594067969379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9995183111830962</v>
+        <v>0.7851116665671326</v>
       </c>
       <c r="D8">
-        <v>1.000085323919915</v>
+        <v>0.6942873737666481</v>
       </c>
       <c r="E8">
-        <v>1.001109901054921</v>
+        <v>1.460869117273427</v>
       </c>
       <c r="F8">
-        <v>0.9979813208750302</v>
+        <v>0.55414037025527</v>
       </c>
       <c r="G8">
-        <v>1.001686963109937</v>
+        <v>1.887313635701267</v>
       </c>
       <c r="H8">
-        <v>1.000085323919915</v>
+        <v>0.6942873737666481</v>
       </c>
       <c r="I8">
-        <v>0.9993156653731124</v>
+        <v>0.8233301448383037</v>
       </c>
       <c r="J8">
-        <v>1.001686963109937</v>
+        <v>1.887313635701267</v>
       </c>
       <c r="K8">
-        <v>1.000085323919915</v>
+        <v>0.6942873737666481</v>
       </c>
       <c r="L8">
-        <v>0.9993156653731124</v>
+        <v>0.8233301448383037</v>
       </c>
       <c r="M8">
-        <v>1.000501314241524</v>
+        <v>1.355321890269785</v>
       </c>
       <c r="N8">
-        <v>1.000501314241524</v>
+        <v>1.355321890269785</v>
       </c>
       <c r="O8">
-        <v>1.000704176512657</v>
+        <v>1.390504299270999</v>
       </c>
       <c r="P8">
-        <v>1.000362650800988</v>
+        <v>1.134977051435406</v>
       </c>
       <c r="Q8">
-        <v>1.000362650800988</v>
+        <v>1.134977051435406</v>
       </c>
       <c r="R8">
-        <v>1.00029331908072</v>
+        <v>1.024804632018217</v>
       </c>
       <c r="S8">
-        <v>1.00029331908072</v>
+        <v>1.024804632018217</v>
       </c>
       <c r="T8">
-        <v>0.9999495809193352</v>
+        <v>1.034175384733675</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9888494306708471</v>
+        <v>0.9943103246909638</v>
       </c>
       <c r="D9">
-        <v>0.9929702518072635</v>
+        <v>0.9974123504742233</v>
       </c>
       <c r="E9">
-        <v>1.025010645769137</v>
+        <v>1.012893544370036</v>
       </c>
       <c r="F9">
-        <v>0.9647526604373322</v>
+        <v>0.9806877329680092</v>
       </c>
       <c r="G9">
-        <v>1.042822578952436</v>
+        <v>1.021425508539001</v>
       </c>
       <c r="H9">
-        <v>0.9929702518072635</v>
+        <v>0.9974123504742233</v>
       </c>
       <c r="I9">
-        <v>0.9871891958171737</v>
+        <v>0.9930272858584688</v>
       </c>
       <c r="J9">
-        <v>1.042822578952436</v>
+        <v>1.021425508539001</v>
       </c>
       <c r="K9">
-        <v>0.9929702518072635</v>
+        <v>0.9974123504742233</v>
       </c>
       <c r="L9">
-        <v>0.9871891958171737</v>
+        <v>0.9930272858584688</v>
       </c>
       <c r="M9">
-        <v>1.015005887384805</v>
+        <v>1.007226397198735</v>
       </c>
       <c r="N9">
-        <v>1.015005887384805</v>
+        <v>1.007226397198735</v>
       </c>
       <c r="O9">
-        <v>1.018340806846249</v>
+        <v>1.009115446255835</v>
       </c>
       <c r="P9">
-        <v>1.007660675525624</v>
+        <v>1.003955048290564</v>
       </c>
       <c r="Q9">
-        <v>1.007660675525624</v>
+        <v>1.003955048290565</v>
       </c>
       <c r="R9">
-        <v>1.003988069596034</v>
+        <v>1.002319373836479</v>
       </c>
       <c r="S9">
-        <v>1.003988069596034</v>
+        <v>1.002319373836479</v>
       </c>
       <c r="T9">
-        <v>1.000265793909032</v>
+        <v>0.9999594578167837</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7818060520238268</v>
+        <v>0.9995183111830962</v>
       </c>
       <c r="D10">
-        <v>0.6880833774725619</v>
+        <v>1.000085323919915</v>
       </c>
       <c r="E10">
-        <v>1.467800165623083</v>
+        <v>1.001109901054921</v>
       </c>
       <c r="F10">
-        <v>0.5492427741520254</v>
+        <v>0.9979813208750302</v>
       </c>
       <c r="G10">
-        <v>1.901444139913594</v>
+        <v>1.001686963109937</v>
       </c>
       <c r="H10">
-        <v>0.6880833774725619</v>
+        <v>1.000085323919915</v>
       </c>
       <c r="I10">
-        <v>0.8212339618971893</v>
+        <v>0.9993156653731124</v>
       </c>
       <c r="J10">
-        <v>1.901444139913594</v>
+        <v>1.001686963109937</v>
       </c>
       <c r="K10">
-        <v>0.6880833774725619</v>
+        <v>1.000085323919915</v>
       </c>
       <c r="L10">
-        <v>0.8212339618971893</v>
+        <v>0.9993156653731124</v>
       </c>
       <c r="M10">
-        <v>1.361339050905392</v>
+        <v>1.000501314241524</v>
       </c>
       <c r="N10">
-        <v>1.361339050905392</v>
+        <v>1.000501314241524</v>
       </c>
       <c r="O10">
-        <v>1.396826089144622</v>
+        <v>1.000704176512657</v>
       </c>
       <c r="P10">
-        <v>1.136920493094449</v>
+        <v>1.000362650800988</v>
       </c>
       <c r="Q10">
-        <v>1.136920493094449</v>
+        <v>1.000362650800988</v>
       </c>
       <c r="R10">
-        <v>1.024711214188977</v>
+        <v>1.00029331908072</v>
       </c>
       <c r="S10">
-        <v>1.024711214188977</v>
+        <v>1.00029331908072</v>
       </c>
       <c r="T10">
-        <v>1.034935078513713</v>
+        <v>0.9999495809193352</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.016181463081662</v>
+        <v>0.9888494306708471</v>
       </c>
       <c r="D11">
-        <v>1.04244624826491</v>
+        <v>0.9929702518072635</v>
       </c>
       <c r="E11">
-        <v>0.9696672693054009</v>
+        <v>1.025010645769137</v>
       </c>
       <c r="F11">
-        <v>0.9975496732932407</v>
+        <v>0.9647526604373322</v>
       </c>
       <c r="G11">
-        <v>0.929159761016499</v>
+        <v>1.042822578952436</v>
       </c>
       <c r="H11">
-        <v>1.04244624826491</v>
+        <v>0.9929702518072635</v>
       </c>
       <c r="I11">
-        <v>1.005037799089998</v>
+        <v>0.9871891958171737</v>
       </c>
       <c r="J11">
-        <v>0.929159761016499</v>
+        <v>1.042822578952436</v>
       </c>
       <c r="K11">
-        <v>1.04244624826491</v>
+        <v>0.9929702518072635</v>
       </c>
       <c r="L11">
-        <v>1.005037799089998</v>
+        <v>0.9871891958171737</v>
       </c>
       <c r="M11">
-        <v>0.9670987800532485</v>
+        <v>1.015005887384805</v>
       </c>
       <c r="N11">
-        <v>0.9670987800532485</v>
+        <v>1.015005887384805</v>
       </c>
       <c r="O11">
-        <v>0.9679549431372992</v>
+        <v>1.018340806846249</v>
       </c>
       <c r="P11">
-        <v>0.9922146027904689</v>
+        <v>1.007660675525624</v>
       </c>
       <c r="Q11">
-        <v>0.9922146027904689</v>
+        <v>1.007660675525624</v>
       </c>
       <c r="R11">
-        <v>1.004772514159079</v>
+        <v>1.003988069596034</v>
       </c>
       <c r="S11">
-        <v>1.004772514159079</v>
+        <v>1.003988069596034</v>
       </c>
       <c r="T11">
-        <v>0.9933403690086186</v>
+        <v>1.000265793909032</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9355559651368434</v>
+        <v>0.7818060520238268</v>
       </c>
       <c r="D12">
-        <v>0.9056006317473669</v>
+        <v>0.6880833774725619</v>
       </c>
       <c r="E12">
-        <v>1.138007377600002</v>
+        <v>1.467800165623083</v>
       </c>
       <c r="F12">
-        <v>0.869715519442105</v>
+        <v>0.5492427741520254</v>
       </c>
       <c r="G12">
-        <v>1.267106846314738</v>
+        <v>1.901444139913594</v>
       </c>
       <c r="H12">
-        <v>0.9056006317473669</v>
+        <v>0.6880833774725619</v>
       </c>
       <c r="I12">
-        <v>0.9480380894842096</v>
+        <v>0.8212339618971893</v>
       </c>
       <c r="J12">
-        <v>1.267106846314738</v>
+        <v>1.901444139913594</v>
       </c>
       <c r="K12">
-        <v>0.9056006317473669</v>
+        <v>0.6880833774725619</v>
       </c>
       <c r="L12">
-        <v>0.9480380894842096</v>
+        <v>0.8212339618971893</v>
       </c>
       <c r="M12">
-        <v>1.107572467899474</v>
+        <v>1.361339050905392</v>
       </c>
       <c r="N12">
-        <v>1.107572467899474</v>
+        <v>1.361339050905392</v>
       </c>
       <c r="O12">
-        <v>1.11771743779965</v>
+        <v>1.396826089144622</v>
       </c>
       <c r="P12">
-        <v>1.040248522515438</v>
+        <v>1.136920493094449</v>
       </c>
       <c r="Q12">
-        <v>1.040248522515438</v>
+        <v>1.136920493094449</v>
       </c>
       <c r="R12">
-        <v>1.00658654982342</v>
+        <v>1.024711214188977</v>
       </c>
       <c r="S12">
-        <v>1.00658654982342</v>
+        <v>1.024711214188977</v>
       </c>
       <c r="T12">
-        <v>1.010670738287544</v>
+        <v>1.034935078513713</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.041706054046306</v>
+        <v>1.016181463081662</v>
       </c>
       <c r="D13">
-        <v>1.04399367958054</v>
+        <v>1.04244624826491</v>
       </c>
       <c r="E13">
-        <v>0.9087040695674811</v>
+        <v>0.9696672693054009</v>
       </c>
       <c r="F13">
-        <v>1.107505137705624</v>
+        <v>0.9975496732932407</v>
       </c>
       <c r="G13">
-        <v>0.8322170746810791</v>
+        <v>0.929159761016499</v>
       </c>
       <c r="H13">
-        <v>1.04399367958054</v>
+        <v>1.04244624826491</v>
       </c>
       <c r="I13">
-        <v>1.040706968988382</v>
+        <v>1.005037799089998</v>
       </c>
       <c r="J13">
-        <v>0.8322170746810791</v>
+        <v>0.929159761016499</v>
       </c>
       <c r="K13">
-        <v>1.04399367958054</v>
+        <v>1.04244624826491</v>
       </c>
       <c r="L13">
-        <v>1.040706968988382</v>
+        <v>1.005037799089998</v>
       </c>
       <c r="M13">
-        <v>0.9364620218347304</v>
+        <v>0.9670987800532485</v>
       </c>
       <c r="N13">
-        <v>0.9364620218347304</v>
+        <v>0.9670987800532485</v>
       </c>
       <c r="O13">
-        <v>0.9272093710789807</v>
+        <v>0.9679549431372992</v>
       </c>
       <c r="P13">
-        <v>0.9723059077500004</v>
+        <v>0.9922146027904689</v>
       </c>
       <c r="Q13">
-        <v>0.9723059077500004</v>
+        <v>0.9922146027904689</v>
       </c>
       <c r="R13">
-        <v>0.9902278507076354</v>
+        <v>1.004772514159079</v>
       </c>
       <c r="S13">
-        <v>0.9902278507076354</v>
+        <v>1.004772514159079</v>
       </c>
       <c r="T13">
-        <v>0.9958054974282353</v>
+        <v>0.9933403690086186</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6226717199999997</v>
+        <v>0.9355559651368434</v>
       </c>
       <c r="D14">
-        <v>0.4573315399999993</v>
+        <v>0.9056006317473669</v>
       </c>
       <c r="E14">
-        <v>1.808400599999999</v>
+        <v>1.138007377600002</v>
       </c>
       <c r="F14">
-        <v>0.2256521399999998</v>
+        <v>0.869715519442105</v>
       </c>
       <c r="G14">
-        <v>2.559413900000002</v>
+        <v>1.267106846314738</v>
       </c>
       <c r="H14">
-        <v>0.4573315399999993</v>
+        <v>0.9056006317473669</v>
       </c>
       <c r="I14">
-        <v>0.6923155599999995</v>
+        <v>0.9480380894842096</v>
       </c>
       <c r="J14">
-        <v>2.559413900000002</v>
+        <v>1.267106846314738</v>
       </c>
       <c r="K14">
-        <v>0.4573315399999993</v>
+        <v>0.9056006317473669</v>
       </c>
       <c r="L14">
-        <v>0.6923155599999995</v>
+        <v>0.9480380894842096</v>
       </c>
       <c r="M14">
-        <v>1.625864730000001</v>
+        <v>1.107572467899474</v>
       </c>
       <c r="N14">
-        <v>1.625864730000001</v>
+        <v>1.107572467899474</v>
       </c>
       <c r="O14">
-        <v>1.68671002</v>
+        <v>1.11771743779965</v>
       </c>
       <c r="P14">
-        <v>1.236353666666667</v>
+        <v>1.040248522515438</v>
       </c>
       <c r="Q14">
-        <v>1.236353666666667</v>
+        <v>1.040248522515438</v>
       </c>
       <c r="R14">
-        <v>1.041598135</v>
+        <v>1.00658654982342</v>
       </c>
       <c r="S14">
-        <v>1.041598135</v>
+        <v>1.00658654982342</v>
       </c>
       <c r="T14">
-        <v>1.060964243333333</v>
+        <v>1.010670738287544</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.1585466</v>
+        <v>1.041706054046306</v>
       </c>
       <c r="D15">
-        <v>1.9813918</v>
+        <v>1.04399367958054</v>
       </c>
       <c r="E15">
-        <v>0.6454245799999999</v>
+        <v>0.9087040695674811</v>
       </c>
       <c r="F15">
-        <v>0.66920919</v>
+        <v>1.107505137705624</v>
       </c>
       <c r="G15">
-        <v>0.21885897</v>
+        <v>0.8322170746810791</v>
       </c>
       <c r="H15">
-        <v>1.9813918</v>
+        <v>1.04399367958054</v>
       </c>
       <c r="I15">
-        <v>0.8289786500000002</v>
+        <v>1.040706968988382</v>
       </c>
       <c r="J15">
-        <v>0.21885897</v>
+        <v>0.8322170746810791</v>
       </c>
       <c r="K15">
-        <v>1.9813918</v>
+        <v>1.04399367958054</v>
       </c>
       <c r="L15">
-        <v>0.8289786500000002</v>
+        <v>1.040706968988382</v>
       </c>
       <c r="M15">
-        <v>0.5239188100000001</v>
+        <v>0.9364620218347304</v>
       </c>
       <c r="N15">
-        <v>0.5239188100000001</v>
+        <v>0.9364620218347304</v>
       </c>
       <c r="O15">
-        <v>0.5644207333333333</v>
+        <v>0.9272093710789807</v>
       </c>
       <c r="P15">
-        <v>1.00974314</v>
+        <v>0.9723059077500004</v>
       </c>
       <c r="Q15">
-        <v>1.00974314</v>
+        <v>0.9723059077500004</v>
       </c>
       <c r="R15">
-        <v>1.252655305</v>
+        <v>0.9902278507076354</v>
       </c>
       <c r="S15">
-        <v>1.252655305</v>
+        <v>0.9902278507076354</v>
       </c>
       <c r="T15">
-        <v>0.9170682983333333</v>
+        <v>0.9958054974282353</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.2322269</v>
+        <v>0.6226717199999997</v>
       </c>
       <c r="D16">
-        <v>1.3496998</v>
+        <v>0.4573315399999993</v>
       </c>
       <c r="E16">
-        <v>0.46961907</v>
+        <v>1.808400599999999</v>
       </c>
       <c r="F16">
-        <v>1.5602005</v>
+        <v>0.2256521399999998</v>
       </c>
       <c r="G16">
-        <v>0.15298654</v>
+        <v>2.559413900000002</v>
       </c>
       <c r="H16">
-        <v>1.3496998</v>
+        <v>0.4573315399999993</v>
       </c>
       <c r="I16">
-        <v>1.1769958</v>
+        <v>0.6923155599999995</v>
       </c>
       <c r="J16">
-        <v>0.15298654</v>
+        <v>2.559413900000002</v>
       </c>
       <c r="K16">
-        <v>1.3496998</v>
+        <v>0.4573315399999993</v>
       </c>
       <c r="L16">
-        <v>1.1769958</v>
+        <v>0.6923155599999995</v>
       </c>
       <c r="M16">
-        <v>0.66499117</v>
+        <v>1.625864730000001</v>
       </c>
       <c r="N16">
-        <v>0.66499117</v>
+        <v>1.625864730000001</v>
       </c>
       <c r="O16">
-        <v>0.5998671366666667</v>
+        <v>1.68671002</v>
       </c>
       <c r="P16">
-        <v>0.8932273799999999</v>
+        <v>1.236353666666667</v>
       </c>
       <c r="Q16">
-        <v>0.8932273799999999</v>
+        <v>1.236353666666667</v>
       </c>
       <c r="R16">
-        <v>1.007345485</v>
+        <v>1.041598135</v>
       </c>
       <c r="S16">
-        <v>1.007345485</v>
+        <v>1.041598135</v>
       </c>
       <c r="T16">
-        <v>0.9902881016666666</v>
+        <v>1.060964243333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.2404767</v>
+        <v>1.1585466</v>
       </c>
       <c r="D17">
-        <v>1.1079542</v>
+        <v>1.9813918</v>
       </c>
       <c r="E17">
-        <v>0.42492337</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="F17">
-        <v>1.9250803</v>
+        <v>0.66920919</v>
       </c>
       <c r="G17">
-        <v>0.14937888</v>
+        <v>0.21885897</v>
       </c>
       <c r="H17">
-        <v>1.1079542</v>
+        <v>1.9813918</v>
       </c>
       <c r="I17">
-        <v>1.2932411</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="J17">
-        <v>0.14937888</v>
+        <v>0.21885897</v>
       </c>
       <c r="K17">
-        <v>1.1079542</v>
+        <v>1.9813918</v>
       </c>
       <c r="L17">
-        <v>1.2932411</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M17">
-        <v>0.72130999</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N17">
-        <v>0.72130999</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O17">
-        <v>0.6225144499999999</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P17">
-        <v>0.8501913933333333</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q17">
-        <v>0.8501913933333333</v>
+        <v>1.00974314</v>
       </c>
       <c r="R17">
-        <v>0.914632095</v>
+        <v>1.252655305</v>
       </c>
       <c r="S17">
-        <v>0.914632095</v>
+        <v>1.252655305</v>
       </c>
       <c r="T17">
-        <v>1.023509091666667</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8710093052054793</v>
+        <v>1.2322269</v>
       </c>
       <c r="D18">
-        <v>0.9344397583561641</v>
+        <v>1.3496998</v>
       </c>
       <c r="E18">
-        <v>1.289881642739726</v>
+        <v>0.46961907</v>
       </c>
       <c r="F18">
-        <v>0.5754388001369865</v>
+        <v>1.5602005</v>
       </c>
       <c r="G18">
-        <v>1.492148408630137</v>
+        <v>0.15298654</v>
       </c>
       <c r="H18">
-        <v>0.9344397583561641</v>
+        <v>1.3496998</v>
       </c>
       <c r="I18">
-        <v>0.8453867987671233</v>
+        <v>1.1769958</v>
       </c>
       <c r="J18">
-        <v>1.492148408630137</v>
+        <v>0.15298654</v>
       </c>
       <c r="K18">
-        <v>0.9344397583561641</v>
+        <v>1.3496998</v>
       </c>
       <c r="L18">
-        <v>0.8453867987671233</v>
+        <v>1.1769958</v>
       </c>
       <c r="M18">
-        <v>1.16876760369863</v>
+        <v>0.66499117</v>
       </c>
       <c r="N18">
-        <v>1.16876760369863</v>
+        <v>0.66499117</v>
       </c>
       <c r="O18">
-        <v>1.209138950045662</v>
+        <v>0.5998671366666667</v>
       </c>
       <c r="P18">
-        <v>1.090658321917808</v>
+        <v>0.8932273799999999</v>
       </c>
       <c r="Q18">
-        <v>1.090658321917808</v>
+        <v>0.8932273799999999</v>
       </c>
       <c r="R18">
-        <v>1.051603681027397</v>
+        <v>1.007345485</v>
       </c>
       <c r="S18">
-        <v>1.051603681027397</v>
+        <v>1.007345485</v>
       </c>
       <c r="T18">
-        <v>1.001384118972602</v>
+        <v>0.9902881016666666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.024516017894737</v>
+        <v>1.2404767</v>
       </c>
       <c r="D19">
-        <v>0.868363914736842</v>
+        <v>1.1079542</v>
       </c>
       <c r="E19">
-        <v>0.8989434447368422</v>
+        <v>0.42492337</v>
       </c>
       <c r="F19">
-        <v>1.374547666842105</v>
+        <v>1.9250803</v>
       </c>
       <c r="G19">
-        <v>1.005394897894737</v>
+        <v>0.14937888</v>
       </c>
       <c r="H19">
-        <v>0.868363914736842</v>
+        <v>1.1079542</v>
       </c>
       <c r="I19">
-        <v>1.09057145</v>
+        <v>1.2932411</v>
       </c>
       <c r="J19">
-        <v>1.005394897894737</v>
+        <v>0.14937888</v>
       </c>
       <c r="K19">
-        <v>0.868363914736842</v>
+        <v>1.1079542</v>
       </c>
       <c r="L19">
-        <v>1.09057145</v>
+        <v>1.2932411</v>
       </c>
       <c r="M19">
-        <v>1.047983173947368</v>
+        <v>0.72130999</v>
       </c>
       <c r="N19">
-        <v>1.047983173947368</v>
+        <v>0.72130999</v>
       </c>
       <c r="O19">
-        <v>0.9983032642105263</v>
+        <v>0.6225144499999999</v>
       </c>
       <c r="P19">
-        <v>0.9881100875438596</v>
+        <v>0.8501913933333333</v>
       </c>
       <c r="Q19">
-        <v>0.9881100875438596</v>
+        <v>0.8501913933333333</v>
       </c>
       <c r="R19">
-        <v>0.9581735443421053</v>
+        <v>0.914632095</v>
       </c>
       <c r="S19">
-        <v>0.9581735443421053</v>
+        <v>0.914632095</v>
       </c>
       <c r="T19">
-        <v>1.04372289868421</v>
+        <v>1.023509091666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.070513331578948</v>
+        <v>0.8710093052054793</v>
       </c>
       <c r="D20">
-        <v>1.091711147368421</v>
+        <v>0.9344397583561641</v>
       </c>
       <c r="E20">
-        <v>0.8313715421052631</v>
+        <v>1.289881642739726</v>
       </c>
       <c r="F20">
-        <v>1.223202735789474</v>
+        <v>0.5754388001369865</v>
       </c>
       <c r="G20">
-        <v>0.7253494259473686</v>
+        <v>1.492148408630137</v>
       </c>
       <c r="H20">
-        <v>1.091711147368421</v>
+        <v>0.9344397583561641</v>
       </c>
       <c r="I20">
-        <v>1.060598181578947</v>
+        <v>0.8453867987671233</v>
       </c>
       <c r="J20">
-        <v>0.7253494259473686</v>
+        <v>1.492148408630137</v>
       </c>
       <c r="K20">
-        <v>1.091711147368421</v>
+        <v>0.9344397583561641</v>
       </c>
       <c r="L20">
-        <v>1.060598181578947</v>
+        <v>0.8453867987671233</v>
       </c>
       <c r="M20">
-        <v>0.892973803763158</v>
+        <v>1.16876760369863</v>
       </c>
       <c r="N20">
-        <v>0.892973803763158</v>
+        <v>1.16876760369863</v>
       </c>
       <c r="O20">
-        <v>0.8724397165438598</v>
+        <v>1.209138950045662</v>
       </c>
       <c r="P20">
-        <v>0.9592195849649124</v>
+        <v>1.090658321917808</v>
       </c>
       <c r="Q20">
-        <v>0.9592195849649124</v>
+        <v>1.090658321917808</v>
       </c>
       <c r="R20">
-        <v>0.9923424755657895</v>
+        <v>1.051603681027397</v>
       </c>
       <c r="S20">
-        <v>0.9923424755657895</v>
+        <v>1.051603681027397</v>
       </c>
       <c r="T20">
-        <v>1.000457727394737</v>
+        <v>1.001384118972602</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.014347206604026</v>
+        <v>1.024516017894737</v>
       </c>
       <c r="D21">
-        <v>0.787771418577992</v>
+        <v>0.868363914736842</v>
       </c>
       <c r="E21">
-        <v>0.9404216355940348</v>
+        <v>0.8989434447368422</v>
       </c>
       <c r="F21">
-        <v>1.35162782427869</v>
+        <v>1.374547666842105</v>
       </c>
       <c r="G21">
-        <v>1.021884075968069</v>
+        <v>1.005394897894737</v>
       </c>
       <c r="H21">
-        <v>0.787771418577992</v>
+        <v>0.868363914736842</v>
       </c>
       <c r="I21">
-        <v>1.107077319400852</v>
+        <v>1.09057145</v>
       </c>
       <c r="J21">
-        <v>1.021884075968069</v>
+        <v>1.005394897894737</v>
       </c>
       <c r="K21">
-        <v>0.787771418577992</v>
+        <v>0.868363914736842</v>
       </c>
       <c r="L21">
-        <v>1.107077319400852</v>
+        <v>1.09057145</v>
       </c>
       <c r="M21">
-        <v>1.064480697684461</v>
+        <v>1.047983173947368</v>
       </c>
       <c r="N21">
-        <v>1.064480697684461</v>
+        <v>1.047983173947368</v>
       </c>
       <c r="O21">
-        <v>1.023127676987652</v>
+        <v>0.9983032642105263</v>
       </c>
       <c r="P21">
-        <v>0.9722442713156377</v>
+        <v>0.9881100875438596</v>
       </c>
       <c r="Q21">
-        <v>0.9722442713156377</v>
+        <v>0.9881100875438596</v>
       </c>
       <c r="R21">
-        <v>0.9261260581312263</v>
+        <v>0.9581735443421053</v>
       </c>
       <c r="S21">
-        <v>0.9261260581312263</v>
+        <v>0.9581735443421053</v>
       </c>
       <c r="T21">
-        <v>1.037188246737277</v>
+        <v>1.04372289868421</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.01709717973906</v>
+        <v>1.070513331578948</v>
       </c>
       <c r="D22">
-        <v>1.108546735160906</v>
+        <v>1.091711147368421</v>
       </c>
       <c r="E22">
-        <v>0.9757852064686257</v>
+        <v>0.8313715421052631</v>
       </c>
       <c r="F22">
-        <v>0.9040444492177049</v>
+        <v>1.223202735789474</v>
       </c>
       <c r="G22">
-        <v>0.9136383475102811</v>
+        <v>0.7253494259473686</v>
       </c>
       <c r="H22">
-        <v>1.108546735160906</v>
+        <v>1.091711147368421</v>
       </c>
       <c r="I22">
-        <v>0.9796214158284349</v>
+        <v>1.060598181578947</v>
       </c>
       <c r="J22">
-        <v>0.9136383475102811</v>
+        <v>0.7253494259473686</v>
       </c>
       <c r="K22">
-        <v>1.108546735160906</v>
+        <v>1.091711147368421</v>
       </c>
       <c r="L22">
-        <v>0.9796214158284349</v>
+        <v>1.060598181578947</v>
       </c>
       <c r="M22">
-        <v>0.9466298816693579</v>
+        <v>0.892973803763158</v>
       </c>
       <c r="N22">
-        <v>0.9466298816693579</v>
+        <v>0.892973803763158</v>
       </c>
       <c r="O22">
-        <v>0.9563483232691139</v>
+        <v>0.8724397165438598</v>
       </c>
       <c r="P22">
-        <v>1.000602166166541</v>
+        <v>0.9592195849649124</v>
       </c>
       <c r="Q22">
-        <v>1.000602166166541</v>
+        <v>0.9592195849649124</v>
       </c>
       <c r="R22">
-        <v>1.027588308415132</v>
+        <v>0.9923424755657895</v>
       </c>
       <c r="S22">
-        <v>1.027588308415132</v>
+        <v>0.9923424755657895</v>
       </c>
       <c r="T22">
-        <v>0.9831222223208352</v>
+        <v>1.000457727394737</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.031765287095218</v>
+        <v>1.014347206604026</v>
       </c>
       <c r="D23">
-        <v>1.191763859511074</v>
+        <v>0.787771418577992</v>
       </c>
       <c r="E23">
-        <v>0.9491394175470963</v>
+        <v>0.9404216355940348</v>
       </c>
       <c r="F23">
-        <v>0.8681313135159158</v>
+        <v>1.35162782427869</v>
       </c>
       <c r="G23">
-        <v>0.8157107643532153</v>
+        <v>1.021884075968069</v>
       </c>
       <c r="H23">
-        <v>1.191763859511074</v>
+        <v>0.787771418577992</v>
       </c>
       <c r="I23">
-        <v>0.9658891006809871</v>
+        <v>1.107077319400852</v>
       </c>
       <c r="J23">
-        <v>0.8157107643532153</v>
+        <v>1.021884075968069</v>
       </c>
       <c r="K23">
-        <v>1.191763859511074</v>
+        <v>0.787771418577992</v>
       </c>
       <c r="L23">
-        <v>0.9658891006809871</v>
+        <v>1.107077319400852</v>
       </c>
       <c r="M23">
-        <v>0.8907999325171012</v>
+        <v>1.064480697684461</v>
       </c>
       <c r="N23">
-        <v>0.8907999325171012</v>
+        <v>1.064480697684461</v>
       </c>
       <c r="O23">
-        <v>0.9102464275270995</v>
+        <v>1.023127676987652</v>
       </c>
       <c r="P23">
-        <v>0.9911212415150921</v>
+        <v>0.9722442713156377</v>
       </c>
       <c r="Q23">
-        <v>0.9911212415150921</v>
+        <v>0.9722442713156377</v>
       </c>
       <c r="R23">
-        <v>1.041281896014087</v>
+        <v>0.9261260581312263</v>
       </c>
       <c r="S23">
-        <v>1.041281896014087</v>
+        <v>0.9261260581312263</v>
       </c>
       <c r="T23">
-        <v>0.9703999571172509</v>
+        <v>1.037188246737277</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.00044227108493</v>
+        <v>1.01709717973906</v>
       </c>
       <c r="D24">
-        <v>0.9323921068624815</v>
+        <v>1.108546735160906</v>
       </c>
       <c r="E24">
-        <v>0.9914124375423538</v>
+        <v>0.9757852064686257</v>
       </c>
       <c r="F24">
-        <v>1.092053969813212</v>
+        <v>0.9040444492177049</v>
       </c>
       <c r="G24">
-        <v>1.020774004069899</v>
+        <v>0.9136383475102811</v>
       </c>
       <c r="H24">
-        <v>0.9323921068624815</v>
+        <v>1.108546735160906</v>
       </c>
       <c r="I24">
-        <v>1.028459455958266</v>
+        <v>0.9796214158284349</v>
       </c>
       <c r="J24">
-        <v>1.020774004069899</v>
+        <v>0.9136383475102811</v>
       </c>
       <c r="K24">
-        <v>0.9323921068624815</v>
+        <v>1.108546735160906</v>
       </c>
       <c r="L24">
-        <v>1.028459455958266</v>
+        <v>0.9796214158284349</v>
       </c>
       <c r="M24">
-        <v>1.024616730014083</v>
+        <v>0.9466298816693579</v>
       </c>
       <c r="N24">
-        <v>1.024616730014083</v>
+        <v>0.9466298816693579</v>
       </c>
       <c r="O24">
-        <v>1.013548632523506</v>
+        <v>0.9563483232691139</v>
       </c>
       <c r="P24">
-        <v>0.993875188963549</v>
+        <v>1.000602166166541</v>
       </c>
       <c r="Q24">
-        <v>0.993875188963549</v>
+        <v>1.000602166166541</v>
       </c>
       <c r="R24">
-        <v>0.9785044184382822</v>
+        <v>1.027588308415132</v>
       </c>
       <c r="S24">
-        <v>0.9785044184382822</v>
+        <v>1.027588308415132</v>
       </c>
       <c r="T24">
-        <v>1.010922374221857</v>
+        <v>0.9831222223208352</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.123969491982447</v>
+        <v>1.031765287095218</v>
       </c>
       <c r="D25">
-        <v>1.187008226709116</v>
+        <v>1.191763859511074</v>
       </c>
       <c r="E25">
-        <v>0.7353128591372831</v>
+        <v>0.9491394175470963</v>
       </c>
       <c r="F25">
-        <v>1.240852921737708</v>
+        <v>0.8681313135159158</v>
       </c>
       <c r="G25">
-        <v>0.4841844833459983</v>
+        <v>0.8157107643532153</v>
       </c>
       <c r="H25">
-        <v>1.187008226709116</v>
+        <v>1.191763859511074</v>
       </c>
       <c r="I25">
-        <v>1.098472123593661</v>
+        <v>0.9658891006809871</v>
       </c>
       <c r="J25">
-        <v>0.4841844833459983</v>
+        <v>0.8157107643532153</v>
       </c>
       <c r="K25">
-        <v>1.187008226709116</v>
+        <v>1.191763859511074</v>
       </c>
       <c r="L25">
-        <v>1.098472123593661</v>
+        <v>0.9658891006809871</v>
       </c>
       <c r="M25">
-        <v>0.7913283034698299</v>
+        <v>0.8907999325171012</v>
       </c>
       <c r="N25">
-        <v>0.7913283034698299</v>
+        <v>0.8907999325171012</v>
       </c>
       <c r="O25">
-        <v>0.7726564886923143</v>
+        <v>0.9102464275270995</v>
       </c>
       <c r="P25">
-        <v>0.9232216112162588</v>
+        <v>0.9911212415150921</v>
       </c>
       <c r="Q25">
-        <v>0.9232216112162588</v>
+        <v>0.9911212415150921</v>
       </c>
       <c r="R25">
-        <v>0.9891682650894732</v>
+        <v>1.041281896014087</v>
       </c>
       <c r="S25">
-        <v>0.9891682650894732</v>
+        <v>1.041281896014087</v>
       </c>
       <c r="T25">
-        <v>0.9783000177510357</v>
+        <v>0.9703999571172509</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.027287563145395</v>
+        <v>1.00044227108493</v>
       </c>
       <c r="D26">
-        <v>1.003231871166142</v>
+        <v>0.9323921068624815</v>
       </c>
       <c r="E26">
-        <v>0.9351931995740717</v>
+        <v>0.9914124375423538</v>
       </c>
       <c r="F26">
-        <v>1.118815046577339</v>
+        <v>1.092053969813212</v>
       </c>
       <c r="G26">
-        <v>0.8880443702687092</v>
+        <v>1.020774004069899</v>
       </c>
       <c r="H26">
-        <v>1.003231871166142</v>
+        <v>0.9323921068624815</v>
       </c>
       <c r="I26">
-        <v>1.037061752629105</v>
+        <v>1.028459455958266</v>
       </c>
       <c r="J26">
-        <v>0.8880443702687092</v>
+        <v>1.020774004069899</v>
       </c>
       <c r="K26">
-        <v>1.003231871166142</v>
+        <v>0.9323921068624815</v>
       </c>
       <c r="L26">
-        <v>1.037061752629105</v>
+        <v>1.028459455958266</v>
       </c>
       <c r="M26">
-        <v>0.9625530614489071</v>
+        <v>1.024616730014083</v>
       </c>
       <c r="N26">
-        <v>0.9625530614489071</v>
+        <v>1.024616730014083</v>
       </c>
       <c r="O26">
-        <v>0.9534331074906287</v>
+        <v>1.013548632523506</v>
       </c>
       <c r="P26">
-        <v>0.9761126646879852</v>
+        <v>0.993875188963549</v>
       </c>
       <c r="Q26">
-        <v>0.9761126646879852</v>
+        <v>0.993875188963549</v>
       </c>
       <c r="R26">
-        <v>0.9828924663075242</v>
+        <v>0.9785044184382822</v>
       </c>
       <c r="S26">
-        <v>0.9828924663075242</v>
+        <v>0.9785044184382822</v>
       </c>
       <c r="T26">
-        <v>1.00160563389346</v>
+        <v>1.010922374221857</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9713854731325707</v>
+        <v>1.123969491982447</v>
       </c>
       <c r="D27">
-        <v>1.010645756512691</v>
+        <v>1.187008226709116</v>
       </c>
       <c r="E27">
-        <v>1.044451425875053</v>
+        <v>0.7353128591372831</v>
       </c>
       <c r="F27">
-        <v>0.9555318419030793</v>
+        <v>1.240852921737708</v>
       </c>
       <c r="G27">
-        <v>1.131039080618272</v>
+        <v>0.4841844833459983</v>
       </c>
       <c r="H27">
-        <v>1.010645756512691</v>
+        <v>1.187008226709116</v>
       </c>
       <c r="I27">
-        <v>0.9555278272599553</v>
+        <v>1.098472123593661</v>
       </c>
       <c r="J27">
-        <v>1.131039080618272</v>
+        <v>0.4841844833459983</v>
       </c>
       <c r="K27">
-        <v>1.010645756512691</v>
+        <v>1.187008226709116</v>
       </c>
       <c r="L27">
-        <v>0.9555278272599553</v>
+        <v>1.098472123593661</v>
       </c>
       <c r="M27">
-        <v>1.043283453939113</v>
+        <v>0.7913283034698299</v>
       </c>
       <c r="N27">
-        <v>1.043283453939113</v>
+        <v>0.7913283034698299</v>
       </c>
       <c r="O27">
-        <v>1.04367277791776</v>
+        <v>0.7726564886923143</v>
       </c>
       <c r="P27">
-        <v>1.032404221463639</v>
+        <v>0.9232216112162588</v>
       </c>
       <c r="Q27">
-        <v>1.032404221463639</v>
+        <v>0.9232216112162588</v>
       </c>
       <c r="R27">
-        <v>1.026964605225902</v>
+        <v>0.9891682650894732</v>
       </c>
       <c r="S27">
-        <v>1.026964605225902</v>
+        <v>0.9891682650894732</v>
       </c>
       <c r="T27">
-        <v>1.011430234216937</v>
+        <v>0.9783000177510357</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.024267963009406</v>
+        <v>1.027287563145395</v>
       </c>
       <c r="D28">
-        <v>0.9980140498634176</v>
+        <v>1.003231871166142</v>
       </c>
       <c r="E28">
-        <v>0.9456622518293256</v>
+        <v>0.9351931995740717</v>
       </c>
       <c r="F28">
-        <v>1.093098302457363</v>
+        <v>1.118815046577339</v>
       </c>
       <c r="G28">
-        <v>0.9144540440804629</v>
+        <v>0.8880443702687092</v>
       </c>
       <c r="H28">
-        <v>0.9980140498634176</v>
+        <v>1.003231871166142</v>
       </c>
       <c r="I28">
-        <v>1.033449497472379</v>
+        <v>1.037061752629105</v>
       </c>
       <c r="J28">
-        <v>0.9144540440804629</v>
+        <v>0.8880443702687092</v>
       </c>
       <c r="K28">
-        <v>0.9980140498634176</v>
+        <v>1.003231871166142</v>
       </c>
       <c r="L28">
-        <v>1.033449497472379</v>
+        <v>1.037061752629105</v>
       </c>
       <c r="M28">
-        <v>0.9739517707764211</v>
+        <v>0.9625530614489071</v>
       </c>
       <c r="N28">
-        <v>0.9739517707764211</v>
+        <v>0.9625530614489071</v>
       </c>
       <c r="O28">
-        <v>0.9645219311273893</v>
+        <v>0.9534331074906287</v>
       </c>
       <c r="P28">
-        <v>0.9819725304720865</v>
+        <v>0.9761126646879852</v>
       </c>
       <c r="Q28">
-        <v>0.9819725304720865</v>
+        <v>0.9761126646879852</v>
       </c>
       <c r="R28">
-        <v>0.9859829103199194</v>
+        <v>0.9828924663075242</v>
       </c>
       <c r="S28">
-        <v>0.9859829103199194</v>
+        <v>0.9828924663075242</v>
       </c>
       <c r="T28">
-        <v>1.001491018118726</v>
+        <v>1.00160563389346</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9713854731325707</v>
+      </c>
+      <c r="D29">
+        <v>1.010645756512691</v>
+      </c>
+      <c r="E29">
+        <v>1.044451425875053</v>
+      </c>
+      <c r="F29">
+        <v>0.9555318419030793</v>
+      </c>
+      <c r="G29">
+        <v>1.131039080618272</v>
+      </c>
+      <c r="H29">
+        <v>1.010645756512691</v>
+      </c>
+      <c r="I29">
+        <v>0.9555278272599553</v>
+      </c>
+      <c r="J29">
+        <v>1.131039080618272</v>
+      </c>
+      <c r="K29">
+        <v>1.010645756512691</v>
+      </c>
+      <c r="L29">
+        <v>0.9555278272599553</v>
+      </c>
+      <c r="M29">
+        <v>1.043283453939113</v>
+      </c>
+      <c r="N29">
+        <v>1.043283453939113</v>
+      </c>
+      <c r="O29">
+        <v>1.04367277791776</v>
+      </c>
+      <c r="P29">
+        <v>1.032404221463639</v>
+      </c>
+      <c r="Q29">
+        <v>1.032404221463639</v>
+      </c>
+      <c r="R29">
+        <v>1.026964605225902</v>
+      </c>
+      <c r="S29">
+        <v>1.026964605225902</v>
+      </c>
+      <c r="T29">
+        <v>1.011430234216937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.024267963009406</v>
+      </c>
+      <c r="D30">
+        <v>0.9980140498634176</v>
+      </c>
+      <c r="E30">
+        <v>0.9456622518293256</v>
+      </c>
+      <c r="F30">
+        <v>1.093098302457363</v>
+      </c>
+      <c r="G30">
+        <v>0.9144540440804629</v>
+      </c>
+      <c r="H30">
+        <v>0.9980140498634176</v>
+      </c>
+      <c r="I30">
+        <v>1.033449497472379</v>
+      </c>
+      <c r="J30">
+        <v>0.9144540440804629</v>
+      </c>
+      <c r="K30">
+        <v>0.9980140498634176</v>
+      </c>
+      <c r="L30">
+        <v>1.033449497472379</v>
+      </c>
+      <c r="M30">
+        <v>0.9739517707764211</v>
+      </c>
+      <c r="N30">
+        <v>0.9739517707764211</v>
+      </c>
+      <c r="O30">
+        <v>0.9645219311273893</v>
+      </c>
+      <c r="P30">
+        <v>0.9819725304720865</v>
+      </c>
+      <c r="Q30">
+        <v>0.9819725304720865</v>
+      </c>
+      <c r="R30">
+        <v>0.9859829103199194</v>
+      </c>
+      <c r="S30">
+        <v>0.9859829103199194</v>
+      </c>
+      <c r="T30">
+        <v>1.001491018118726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.093364228552632</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.080272787248889</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.8009561183891329</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.238565946938871</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.631722092862824</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.080272787248889</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.095539147948636</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.631722092862824</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.080272787248889</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.095539147948636</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.8636306204057299</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.8636306204057299</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.8427391197335309</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9358446760201163</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9358446760201163</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9719517038273096</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9719517038273096</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9900700536568309</v>
       </c>
     </row>
